--- a/res/thermodynamic_properties_oh.xlsx
+++ b/res/thermodynamic_properties_oh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gibbs Potential (Φ)</t>
+          <t>Gibbs Potential</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Phi (Ф)</t>
         </is>
       </c>
     </row>
@@ -482,7 +487,10 @@
         <v>149.978</v>
       </c>
       <c r="F2" t="n">
-        <v>-2335277.8</v>
+        <v>-12253.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4359.71056</v>
       </c>
     </row>
     <row r="3">
@@ -502,7 +510,10 @@
         <v>170.9461000430691</v>
       </c>
       <c r="F3" t="n">
-        <v>-5363651.949531551</v>
+        <v>-28436.03727909088</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2260.751420481807</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +533,10 @@
         <v>182.5429934178395</v>
       </c>
       <c r="F4" t="n">
-        <v>-8234039.324604221</v>
+        <v>-45821.85935641215</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1574.822257327791</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +556,10 @@
         <v>182.7224265760919</v>
       </c>
       <c r="F5" t="n">
-        <v>-8288094.594052549</v>
+        <v>-46159.73010674785</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1566.236910362939</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +579,10 @@
         <v>191.0926187680967</v>
       </c>
       <c r="F6" t="n">
-        <v>-11219754.18661579</v>
+        <v>-64870.01036813013</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1221.446108327478</v>
       </c>
     </row>
     <row r="7">
@@ -582,7 +602,10 @@
         <v>197.6468168121902</v>
       </c>
       <c r="F7" t="n">
-        <v>-14179940.43535236</v>
+        <v>-84318.57137914884</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1016.048133084244</v>
       </c>
     </row>
     <row r="8">
@@ -602,7 +625,10 @@
         <v>203.0646228799939</v>
       </c>
       <c r="F8" t="n">
-        <v>-17175050.33384232</v>
+        <v>-104361.842167882</v>
+      </c>
+      <c r="G8" t="n">
+        <v>880.1072753938698</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +648,10 @@
         <v>207.7017684707115</v>
       </c>
       <c r="F9" t="n">
-        <v>-20207245.38737927</v>
+        <v>-124905.6637800482</v>
+      </c>
+      <c r="G9" t="n">
+        <v>783.7216831512839</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +671,10 @@
         <v>211.7684155281449</v>
       </c>
       <c r="F10" t="n">
-        <v>-23277112.77560784</v>
+        <v>-145883.3143793306</v>
+      </c>
+      <c r="G10" t="n">
+        <v>711.9747287016093</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +694,10 @@
         <v>215.3992788194868</v>
       </c>
       <c r="F11" t="n">
-        <v>-26384549.16360255</v>
+        <v>-167244.9411248731</v>
+      </c>
+      <c r="G11" t="n">
+        <v>656.5981407945117</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +717,10 @@
         <v>218.6859687072129</v>
       </c>
       <c r="F12" t="n">
-        <v>-29529112.71534569</v>
+        <v>-188951.8219605744</v>
+      </c>
+      <c r="G12" t="n">
+        <v>612.6420878138277</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +740,10 @@
         <v>221.6936475546167</v>
       </c>
       <c r="F13" t="n">
-        <v>-32710182.31552625</v>
+        <v>-210972.9730068622</v>
+      </c>
+      <c r="G13" t="n">
+        <v>576.96371178869</v>
       </c>
     </row>
     <row r="14">
@@ -722,7 +763,10 @@
         <v>224.4703363106855</v>
       </c>
       <c r="F14" t="n">
-        <v>-35927036.73942097</v>
+        <v>-233283.0112369744</v>
+      </c>
+      <c r="G14" t="n">
+        <v>547.4724415371988</v>
       </c>
     </row>
     <row r="15">
@@ -742,7 +786,10 @@
         <v>227.0524527983233</v>
       </c>
       <c r="F15" t="n">
-        <v>-39178897.01902818</v>
+        <v>-255860.73980743</v>
+      </c>
+      <c r="G15" t="n">
+        <v>522.7241787373844</v>
       </c>
     </row>
     <row r="16">
@@ -762,7 +809,10 @@
         <v>229.4682776961265</v>
       </c>
       <c r="F16" t="n">
-        <v>-42464950.48648862</v>
+        <v>-278688.1738768631</v>
+      </c>
+      <c r="G16" t="n">
+        <v>501.6897189014038</v>
       </c>
     </row>
     <row r="17">
@@ -782,7 +832,10 @@
         <v>231.7402149014633</v>
       </c>
       <c r="F17" t="n">
-        <v>-45784365.09162395</v>
+        <v>-301749.8475829232</v>
+      </c>
+      <c r="G17" t="n">
+        <v>483.615991405436</v>
       </c>
     </row>
     <row r="18">
@@ -802,7 +855,10 @@
         <v>233.8863172515764</v>
       </c>
       <c r="F18" t="n">
-        <v>-49136298.27692857</v>
+        <v>-325032.3074331962</v>
+      </c>
+      <c r="G18" t="n">
+        <v>467.9394510206419</v>
       </c>
     </row>
     <row r="19">
@@ -822,7 +878,10 @@
         <v>235.9213468731372</v>
       </c>
       <c r="F19" t="n">
-        <v>-52519902.66901717</v>
+        <v>-348523.7333050004</v>
+      </c>
+      <c r="G19" t="n">
+        <v>454.2301122050712</v>
       </c>
     </row>
     <row r="20">
@@ -842,7 +901,10 @@
         <v>237.8575308293981</v>
       </c>
       <c r="F20" t="n">
-        <v>-55934329.83635657</v>
+        <v>-372213.6492120528</v>
+      </c>
+      <c r="G20" t="n">
+        <v>442.1542885032066</v>
       </c>
     </row>
     <row r="21">
@@ -862,7 +924,10 @@
         <v>239.7051114963578</v>
       </c>
       <c r="F21" t="n">
-        <v>-59378732.8336588</v>
+        <v>-396092.6987212641</v>
+      </c>
+      <c r="G21" t="n">
+        <v>431.4491324779697</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +947,10 @@
         <v>241.4727551746238</v>
       </c>
       <c r="F22" t="n">
-        <v>-62852267.96310811</v>
+        <v>-420152.4678964888</v>
+      </c>
+      <c r="G22" t="n">
+        <v>421.904837427018</v>
       </c>
     </row>
     <row r="23">
@@ -902,7 +970,10 @@
         <v>243.1678606327873</v>
       </c>
       <c r="F23" t="n">
-        <v>-66354096.01736943</v>
+        <v>-444385.3438188126</v>
+      </c>
+      <c r="G23" t="n">
+        <v>413.3519412644299</v>
       </c>
     </row>
     <row r="24">
@@ -922,7 +993,10 @@
         <v>244.7967956320015</v>
       </c>
       <c r="F24" t="n">
-        <v>-69883383.17207098</v>
+        <v>-468784.4001687228</v>
+      </c>
+      <c r="G24" t="n">
+        <v>405.6521052811369</v>
       </c>
     </row>
     <row r="25">
@@ -942,7 +1016,10 @@
         <v>246.3650807137684</v>
       </c>
       <c r="F25" t="n">
-        <v>-73439301.6364997</v>
+        <v>-493343.3036908093</v>
+      </c>
+      <c r="G25" t="n">
+        <v>398.6913075255906</v>
       </c>
     </row>
     <row r="26">
@@ -962,7 +1039,10 @@
         <v>247.8775337647646</v>
       </c>
       <c r="F26" t="n">
-        <v>-77021030.13456258</v>
+        <v>-518056.2369819078</v>
+      </c>
+      <c r="G26" t="n">
+        <v>392.3747446407726</v>
       </c>
     </row>
     <row r="27">
@@ -982,7 +1062,10 @@
         <v>249.3383849963609</v>
       </c>
       <c r="F27" t="n">
-        <v>-80627754.2646957</v>
+        <v>-542917.8341886975</v>
+      </c>
+      <c r="G27" t="n">
+        <v>386.6229624241581</v>
       </c>
     </row>
     <row r="28">
@@ -1002,7 +1085,10 @@
         <v>250.751369321379</v>
       </c>
       <c r="F28" t="n">
-        <v>-84258666.77219675</v>
+        <v>-567923.1270236243</v>
+      </c>
+      <c r="G28" t="n">
+        <v>381.3688833040047</v>
       </c>
     </row>
     <row r="29">
@@ -1022,7 +1108,10 @@
         <v>252.1198012601105</v>
       </c>
       <c r="F29" t="n">
-        <v>-87912967.75737025</v>
+        <v>-593067.4991083305</v>
+      </c>
+      <c r="G29" t="n">
+        <v>376.5554974607542</v>
       </c>
     </row>
     <row r="30">
@@ -1042,7 +1131,10 @@
         <v>253.4466361973162</v>
       </c>
       <c r="F30" t="n">
-        <v>-91589864.83606739</v>
+        <v>-618346.6470977705</v>
+      </c>
+      <c r="G30" t="n">
+        <v>372.134051129827</v>
       </c>
     </row>
     <row r="31">
@@ -1062,7 +1154,10 @@
         <v>254.7345208706145</v>
       </c>
       <c r="F31" t="n">
-        <v>-95288573.26453383</v>
+        <v>-643756.547370773</v>
+      </c>
+      <c r="G31" t="n">
+        <v>368.0626116577997</v>
       </c>
     </row>
     <row r="32">
@@ -1082,7 +1177,10 @@
         <v>255.9858352853949</v>
       </c>
       <c r="F32" t="n">
-        <v>-99008316.03723018</v>
+        <v>-669293.4273248106</v>
+      </c>
+      <c r="G32" t="n">
+        <v>364.3049210820931</v>
       </c>
     </row>
     <row r="33">
@@ -1102,7 +1200,10 @@
         <v>257.202727746363</v>
       </c>
       <c r="F33" t="n">
-        <v>-102748323.9639989</v>
+        <v>-694953.74050574</v>
+      </c>
+      <c r="G33" t="n">
+        <v>360.8294728355588</v>
       </c>
     </row>
     <row r="34">
@@ -1122,7 +1223,10 @@
         <v>258.3871443193935</v>
       </c>
       <c r="F34" t="n">
-        <v>-106507835.7313139</v>
+        <v>-720734.1449525673</v>
+      </c>
+      <c r="G34" t="n">
+        <v>357.6087625736556</v>
       </c>
     </row>
     <row r="35">
@@ -1142,7 +1246,10 @@
         <v>259.5408537538194</v>
       </c>
       <c r="F35" t="n">
-        <v>-110286097.9511684</v>
+        <v>-746631.4842538233</v>
+      </c>
+      <c r="G35" t="n">
+        <v>354.6186760365726</v>
       </c>
     </row>
     <row r="36">
@@ -1162,7 +1269,10 @@
         <v>260.6654686796062</v>
       </c>
       <c r="F36" t="n">
-        <v>-114082365.2002923</v>
+        <v>-772642.7709038797</v>
+      </c>
+      <c r="G36" t="n">
+        <v>351.8379856121391</v>
       </c>
     </row>
     <row r="37">
@@ -1182,7 +1292,10 @@
         <v>261.762463728301</v>
       </c>
       <c r="F37" t="n">
-        <v>-117895900.0517546</v>
+        <v>-798765.171620348</v>
+      </c>
+      <c r="G37" t="n">
+        <v>349.2479337625484</v>
       </c>
     </row>
     <row r="38">
@@ -1202,7 +1315,10 @@
         <v>262.8331910984693</v>
       </c>
       <c r="F38" t="n">
-        <v>-121725973.100532</v>
+        <v>-824995.9943419121</v>
+      </c>
+      <c r="G38" t="n">
+        <v>346.8318863467499</v>
       </c>
     </row>
     <row r="39">
@@ -1222,7 +1338,10 @@
         <v>263.8788939863061</v>
       </c>
       <c r="F39" t="n">
-        <v>-125571862.9842695</v>
+        <v>-851332.6766728126</v>
+      </c>
+      <c r="G39" t="n">
+        <v>344.5750425518206</v>
       </c>
     </row>
     <row r="40">
@@ -1242,7 +1361,10 @@
         <v>264.900718223454</v>
       </c>
       <c r="F40" t="n">
-        <v>-129432856.4001891</v>
+        <v>-877772.7755781852</v>
+      </c>
+      <c r="G40" t="n">
+        <v>342.4641909538195</v>
       </c>
     </row>
     <row r="41">
@@ -1262,7 +1384,10 @@
         <v>265.8997224017829</v>
       </c>
       <c r="F41" t="n">
-        <v>-133308248.118898</v>
+        <v>-904313.9581654222</v>
+      </c>
+      <c r="G41" t="n">
+        <v>340.4875033862104</v>
       </c>
     </row>
     <row r="42">
@@ -1282,7 +1407,10 @@
         <v>266.876886715238</v>
       </c>
       <c r="F42" t="n">
-        <v>-137197340.9956897</v>
+        <v>-930953.9934121233</v>
+      </c>
+      <c r="G42" t="n">
+        <v>338.6343599646686</v>
       </c>
     </row>
     <row r="43">
@@ -1302,7 +1430,10 @@
         <v>267.8331207090396</v>
       </c>
       <c r="F43" t="n">
-        <v>-141099445.979808</v>
+        <v>-957690.7447221614</v>
+      </c>
+      <c r="G43" t="n">
+        <v>336.8951999199943</v>
       </c>
     </row>
     <row r="44">
@@ -1322,7 +1453,10 @@
         <v>268.7692700943801</v>
       </c>
       <c r="F44" t="n">
-        <v>-145013882.1220523</v>
+        <v>-984522.1632087405</v>
+      </c>
+      <c r="G44" t="n">
+        <v>335.261393913703</v>
       </c>
     </row>
     <row r="45">
@@ -1342,7 +1476,10 @@
         <v>269.6861227606857</v>
       </c>
       <c r="F45" t="n">
-        <v>-148939976.5810235</v>
+        <v>-1011446.281617796</v>
+      </c>
+      <c r="G45" t="n">
+        <v>333.7251343189635</v>
       </c>
     </row>
     <row r="46">
@@ -1362,7 +1499,10 @@
         <v>270.5844140962335</v>
       </c>
       <c r="F46" t="n">
-        <v>-152877064.6282566</v>
+        <v>-1038461.208817194</v>
+      </c>
+      <c r="G46" t="n">
+        <v>332.2793405918155</v>
       </c>
     </row>
     <row r="47">
@@ -1382,7 +1522,10 @@
         <v>271.4648317104669</v>
       </c>
       <c r="F47" t="n">
-        <v>-156824489.6524345</v>
+        <v>-1065565.124787364</v>
+      </c>
+      <c r="G47" t="n">
+        <v>330.9175773709898</v>
       </c>
     </row>
     <row r="48">
@@ -1402,7 +1545,10 @@
         <v>272.328019636979</v>
       </c>
       <c r="F48" t="n">
-        <v>-160781603.1628454</v>
+        <v>-1092756.276057588</v>
+      </c>
+      <c r="G48" t="n">
+        <v>329.6339833572425</v>
       </c>
     </row>
     <row r="49">
@@ -1422,7 +1568,10 @@
         <v>273.1745820842307</v>
       </c>
       <c r="F49" t="n">
-        <v>-164747764.7922127</v>
+        <v>-1120032.971539468</v>
+      </c>
+      <c r="G49" t="n">
+        <v>328.4232093564279</v>
       </c>
     </row>
     <row r="50">
@@ -1442,7 +1591,10 @@
         <v>274.0050867911807</v>
       </c>
       <c r="F50" t="n">
-        <v>-168722342.2990055</v>
+        <v>-1147393.578715259</v>
+      </c>
+      <c r="G50" t="n">
+        <v>327.2803641411202</v>
       </c>
     </row>
     <row r="51">
@@ -1462,7 +1614,10 @@
         <v>274.8200680367411</v>
       </c>
       <c r="F51" t="n">
-        <v>-172704711.5693178</v>
+        <v>-1174836.520144094</v>
+      </c>
+      <c r="G51" t="n">
+        <v>326.2009670062974</v>
       </c>
     </row>
     <row r="52">
@@ -1482,7 +1637,10 @@
         <v>275.6200293450531</v>
       </c>
       <c r="F52" t="n">
-        <v>-176694256.6183868</v>
+        <v>-1202360.270253604</v>
+      </c>
+      <c r="G52" t="n">
+        <v>325.1809060754265</v>
       </c>
     </row>
     <row r="53">
@@ -1502,7 +1660,10 @@
         <v>276.4054459227475</v>
       </c>
       <c r="F53" t="n">
-        <v>-180690369.5918142</v>
+        <v>-1229963.352388404</v>
+      </c>
+      <c r="G53" t="n">
+        <v>324.2164015620758</v>
       </c>
     </row>
     <row r="54">
@@ -1522,7 +1683,10 @@
         <v>277.1767668594376</v>
       </c>
       <c r="F54" t="n">
-        <v>-184692450.7665359</v>
+        <v>-1257644.336090209</v>
+      </c>
+      <c r="G54" t="n">
+        <v>323.3039733151211</v>
       </c>
     </row>
     <row r="55">
@@ -1542,7 +1706,10 @@
         <v>277.9344171185225</v>
       </c>
       <c r="F55" t="n">
-        <v>-188699908.5515839</v>
+        <v>-1285401.834587314</v>
+      </c>
+      <c r="G55" t="n">
+        <v>322.4404120775798</v>
       </c>
     </row>
     <row r="56">
@@ -1562,7 +1729,10 @@
         <v>278.6787993418311</v>
       </c>
       <c r="F56" t="n">
-        <v>-192712159.4886745</v>
+        <v>-1313234.502473659</v>
+      </c>
+      <c r="G56" t="n">
+        <v>321.6227539740161</v>
       </c>
     </row>
     <row r="57">
@@ -1582,7 +1752,10 @@
         <v>279.4102954886158</v>
       </c>
       <c r="F57" t="n">
-        <v>-196728628.252651</v>
+        <v>-1341141.033559924</v>
+      </c>
+      <c r="G57" t="n">
+        <v>320.8482578124174</v>
       </c>
     </row>
     <row r="58">
@@ -1602,7 +1775,10 @@
         <v>280.1292683268132</v>
       </c>
       <c r="F58" t="n">
-        <v>-200748747.6518045</v>
+        <v>-1369120.15888098</v>
+      </c>
+      <c r="G58" t="n">
+        <v>320.114384845934</v>
       </c>
     </row>
     <row r="59">
@@ -1622,7 +1798,10 @@
         <v>280.8360627922708</v>
       </c>
       <c r="F59" t="n">
-        <v>-204771958.6280949</v>
+        <v>-1397170.644845764</v>
+      </c>
+      <c r="G59" t="n">
+        <v>319.4187806899463</v>
       </c>
     </row>
     <row r="60">
@@ -1642,7 +1821,10 @@
         <v>281.5310072297238</v>
       </c>
       <c r="F60" t="n">
-        <v>-208797710.2572859</v>
+        <v>-1425291.291517044</v>
+      </c>
+      <c r="G60" t="n">
+        <v>318.7592591321774</v>
       </c>
     </row>
     <row r="61">
@@ -1662,7 +1844,10 @@
         <v>282.2144145276571</v>
       </c>
       <c r="F61" t="n">
-        <v>-212825459.7490117</v>
+        <v>-1453480.931009879</v>
+      </c>
+      <c r="G61" t="n">
+        <v>318.1337876093518</v>
       </c>
     </row>
     <row r="62">
@@ -1682,7 +1867,10 @@
         <v>282.8865831577588</v>
       </c>
       <c r="F62" t="n">
-        <v>-216854672.4467841</v>
+        <v>-1481738.425998715</v>
+      </c>
+      <c r="G62" t="n">
+        <v>317.5404741542945</v>
       </c>
     </row>
     <row r="63">
@@ -1702,7 +1890,10 @@
         <v>284.1983318607502</v>
       </c>
       <c r="F63" t="n">
-        <v>-224915389.5036239</v>
+        <v>-1538452.577690564</v>
+      </c>
+      <c r="G63" t="n">
+        <v>316.443387195277</v>
       </c>
     </row>
     <row r="64">
@@ -1722,7 +1913,10 @@
         <v>285.4683871296374</v>
       </c>
       <c r="F64" t="n">
-        <v>-232975746.8509938</v>
+        <v>-1595425.208456316</v>
+      </c>
+      <c r="G64" t="n">
+        <v>315.4552556229909</v>
       </c>
     </row>
     <row r="65">
@@ -1742,7 +1936,10 @@
         <v>286.6987056686106</v>
       </c>
       <c r="F65" t="n">
-        <v>-241031760.0480244</v>
+        <v>-1652648.188822218</v>
+      </c>
+      <c r="G65" t="n">
+        <v>314.5649432657012</v>
       </c>
     </row>
     <row r="66">
@@ -1762,7 +1959,10 @@
         <v>287.8910882523069</v>
       </c>
       <c r="F66" t="n">
-        <v>-249079574.7844741</v>
+        <v>-1710113.764731328</v>
+      </c>
+      <c r="G66" t="n">
+        <v>313.7626792788153</v>
       </c>
     </row>
     <row r="67">
@@ -1782,7 +1982,10 @@
         <v>289.0471978146595</v>
       </c>
       <c r="F67" t="n">
-        <v>-257115466.8745404</v>
+        <v>-1767814.528212779</v>
+      </c>
+      <c r="G67" t="n">
+        <v>313.0398589080413</v>
       </c>
     </row>
     <row r="68">
@@ -1802,7 +2005,10 @@
         <v>290.168574988389</v>
       </c>
       <c r="F68" t="n">
-        <v>-265135842.2501695</v>
+        <v>-1825743.391406148</v>
+      </c>
+      <c r="G68" t="n">
+        <v>312.3888779246719</v>
       </c>
     </row>
     <row r="69">
@@ -1822,7 +2028,10 @@
         <v>291.2566515145081</v>
       </c>
       <c r="F69" t="n">
-        <v>-273137236.9541279</v>
+        <v>-1883893.56347444</v>
+      </c>
+      <c r="G69" t="n">
+        <v>311.8029942995549</v>
       </c>
     </row>
     <row r="70">
@@ -1842,7 +2051,10 @@
         <v>292.31276186287</v>
       </c>
       <c r="F70" t="n">
-        <v>-281116317.1330196</v>
+        <v>-1942258.530014951</v>
+      </c>
+      <c r="G70" t="n">
+        <v>311.2762120466852</v>
       </c>
     </row>
     <row r="71">
@@ -1862,7 +2074,10 @@
         <v>293.3381533427371</v>
       </c>
       <c r="F71" t="n">
-        <v>-289069879.0303792</v>
+        <v>-2000832.034639044</v>
+      </c>
+      <c r="G71" t="n">
+        <v>310.8031832150781</v>
       </c>
     </row>
     <row r="72">
@@ -1882,7 +2097,10 @@
         <v>294.3339949328737</v>
       </c>
       <c r="F72" t="n">
-        <v>-296994848.9799293</v>
+        <v>-2059608.062442524</v>
+      </c>
+      <c r="G72" t="n">
+        <v>310.3791248181879</v>
       </c>
     </row>
     <row r="73">
@@ -1902,7 +2120,10 @@
         <v>295.3013850209725</v>
       </c>
       <c r="F73" t="n">
-        <v>-304888283.3990585</v>
+        <v>-2118580.825130087</v>
+      </c>
+      <c r="G73" t="n">
+        <v>309.9997481217129</v>
       </c>
     </row>
     <row r="74">
@@ -1922,7 +2143,10 @@
         <v>296.2413582101869</v>
       </c>
       <c r="F74" t="n">
-        <v>-312747368.7825596</v>
+        <v>-2177744.747591977</v>
+      </c>
+      <c r="G74" t="n">
+        <v>309.6611982060242</v>
       </c>
     </row>
     <row r="75">
@@ -1942,7 +2166,10 @@
         <v>297.1548913245429</v>
       </c>
       <c r="F75" t="n">
-        <v>-320569421.6966461</v>
+        <v>-2237094.455759814</v>
+      </c>
+      <c r="G75" t="n">
+        <v>309.3600021104864</v>
       </c>
     </row>
     <row r="76">
@@ -1962,7 +2189,10 @@
         <v>298.0429087237817</v>
       </c>
       <c r="F76" t="n">
-        <v>-328351888.7732607</v>
+        <v>-2296624.765592787</v>
+      </c>
+      <c r="G76" t="n">
+        <v>309.0930241774558</v>
       </c>
     </row>
     <row r="77">
@@ -1982,7 +2212,10 @@
         <v>298.9062870207909</v>
       </c>
       <c r="F77" t="n">
-        <v>-336092346.7046747</v>
+        <v>-2356330.673065631</v>
+      </c>
+      <c r="G77" t="n">
+        <v>308.8574274617232</v>
       </c>
     </row>
     <row r="78">
@@ -2002,7 +2235,10 @@
         <v>299.7458592804373</v>
       </c>
       <c r="F78" t="n">
-        <v>-343788502.2383769</v>
+        <v>-2416207.345047026</v>
+      </c>
+      <c r="G78" t="n">
+        <v>308.6506402702928</v>
       </c>
     </row>
     <row r="79">
@@ -2022,7 +2258,10 @@
         <v>300.5624187667468</v>
       </c>
       <c r="F79" t="n">
-        <v>-351438192.172244</v>
+        <v>-2476250.110971583</v>
+      </c>
+      <c r="G79" t="n">
+        <v>308.4703270581008</v>
       </c>
     </row>
     <row r="80">
@@ -2042,7 +2281,10 @@
         <v>301.3567222955061</v>
       </c>
       <c r="F80" t="n">
-        <v>-359039383.3499824</v>
+        <v>-2536454.455220913</v>
+      </c>
+      <c r="G80" t="n">
+        <v>308.3143630356352</v>
       </c>
     </row>
     <row r="81">
@@ -2062,7 +2304,10 @@
         <v>302.1294932411197</v>
       </c>
       <c r="F81" t="n">
-        <v>-366590172.656831</v>
+        <v>-2596816.010139906</v>
+      </c>
+      <c r="G81" t="n">
+        <v>308.1808119506411</v>
       </c>
     </row>
     <row r="82">
@@ -2082,7 +2327,10 @@
         <v>302.8814242396454</v>
       </c>
       <c r="F82" t="n">
-        <v>-374088787.015512</v>
+        <v>-2657330.549623339</v>
+      </c>
+      <c r="G82" t="n">
+        <v>308.0679065930565</v>
       </c>
     </row>
     <row r="83">
@@ -2102,7 +2350,10 @@
         <v>304.6743729056652</v>
       </c>
       <c r="F83" t="n">
-        <v>-392596595.0353518</v>
+        <v>-2809259.681389642</v>
+      </c>
+      <c r="G83" t="n">
+        <v>307.8657009671927</v>
       </c>
     </row>
     <row r="84">
@@ -2122,7 +2373,10 @@
         <v>306.3508585300507</v>
       </c>
       <c r="F84" t="n">
-        <v>-410746279.0431023</v>
+        <v>-2962059.304231286</v>
+      </c>
+      <c r="G84" t="n">
+        <v>307.761045826517</v>
       </c>
     </row>
     <row r="85">
@@ -2142,7 +2396,10 @@
         <v>307.9197429258685</v>
       </c>
       <c r="F85" t="n">
-        <v>-428520800.9142184</v>
+        <v>-3115673.599776917</v>
+      </c>
+      <c r="G85" t="n">
+        <v>307.7363648985257</v>
       </c>
     </row>
     <row r="86">
@@ -2162,7 +2419,10 @@
         <v>309.3891875646822</v>
       </c>
       <c r="F86" t="n">
-        <v>-445908201.2410253</v>
+        <v>-3270050.999785937</v>
+      </c>
+      <c r="G86" t="n">
+        <v>307.7773650445789</v>
       </c>
     </row>
     <row r="87">
@@ -2182,7 +2442,10 @@
         <v>310.7667680105714</v>
       </c>
       <c r="F87" t="n">
-        <v>-462901599.0970497</v>
+        <v>-3425143.865635224</v>
+      </c>
+      <c r="G87" t="n">
+        <v>307.8723539920582</v>
       </c>
     </row>
     <row r="88">
@@ -2202,7 +2465,10 @@
         <v>312.0595658953531</v>
       </c>
       <c r="F88" t="n">
-        <v>-479499191.8331298</v>
+        <v>-3580908.2191631</v>
+      </c>
+      <c r="G88" t="n">
+        <v>308.0117194635095</v>
       </c>
     </row>
     <row r="89">
@@ -2222,7 +2488,10 @@
         <v>313.2742435252012</v>
       </c>
       <c r="F89" t="n">
-        <v>-495704254.9004856</v>
+        <v>-3737303.514977321</v>
+      </c>
+      <c r="G89" t="n">
+        <v>308.1875271262746</v>
       </c>
     </row>
     <row r="90">
@@ -2242,7 +2511,10 @@
         <v>314.4171049117421</v>
       </c>
       <c r="F90" t="n">
-        <v>-511525141.6966873</v>
+        <v>-3894292.446536466</v>
+      </c>
+      <c r="G90" t="n">
+        <v>308.3932071081599</v>
       </c>
     </row>
     <row r="91">
@@ -2262,7 +2534,10 @@
         <v>315.4941460881259</v>
       </c>
       <c r="F91" t="n">
-        <v>-526975283.4311023</v>
+        <v>-4051840.779965001</v>
+      </c>
+      <c r="G91" t="n">
+        <v>308.6233072845992</v>
       </c>
     </row>
     <row r="92">
@@ -2282,7 +2557,10 @@
         <v>316.5110968911664</v>
       </c>
       <c r="F92" t="n">
-        <v>-542073189.0069653</v>
+        <v>-4209917.210813899</v>
+      </c>
+      <c r="G92" t="n">
+        <v>308.8732974380897</v>
       </c>
     </row>
     <row r="93">
@@ -2302,7 +2580,10 @@
         <v>317.4734558896229</v>
       </c>
       <c r="F93" t="n">
-        <v>-556842444.9176648</v>
+        <v>-4368493.239937779</v>
+      </c>
+      <c r="G93" t="n">
+        <v>309.139412555576</v>
       </c>
     </row>
     <row r="94">
@@ -2322,7 +2603,10 @@
         <v>318.386519765043</v>
       </c>
       <c r="F94" t="n">
-        <v>-571311715.1552336</v>
+        <v>-4527543.065401696</v>
+      </c>
+      <c r="G94" t="n">
+        <v>309.4185265094285</v>
       </c>
     </row>
     <row r="95">
@@ -2342,7 +2626,10 @@
         <v>319.2554081699838</v>
       </c>
       <c r="F95" t="n">
-        <v>-585514741.1293478</v>
+        <v>-4687043.487910189</v>
+      </c>
+      <c r="G95" t="n">
+        <v>309.7080495250481</v>
       </c>
     </row>
     <row r="96">
@@ -2362,7 +2649,10 @@
         <v>320.0850848741345</v>
       </c>
       <c r="F96" t="n">
-        <v>-599490341.5954008</v>
+        <v>-4846973.827707746</v>
+      </c>
+      <c r="G96" t="n">
+        <v>310.0058444172114</v>
       </c>
     </row>
     <row r="97">
@@ -2382,7 +2672,10 @@
         <v>320.8803758443017</v>
       </c>
       <c r="F97" t="n">
-        <v>-613282412.5904478</v>
+        <v>-5007315.851262108</v>
+      </c>
+      <c r="G97" t="n">
+        <v>310.3101577449197</v>
       </c>
     </row>
     <row r="98">
@@ -2402,7 +2695,10 @@
         <v>321.6459847767571</v>
       </c>
       <c r="F98" t="n">
-        <v>-626939927.3759891</v>
+        <v>-5168053.70633162</v>
+      </c>
+      <c r="G98" t="n">
+        <v>310.6195629062206</v>
       </c>
     </row>
     <row r="99">
@@ -2422,7 +2718,10 @@
         <v>322.3865065009574</v>
       </c>
       <c r="F99" t="n">
-        <v>-640516936.3867236</v>
+        <v>-5329173.864251255</v>
+      </c>
+      <c r="G99" t="n">
+        <v>310.932912851094</v>
       </c>
     </row>
     <row r="100">
@@ -2442,7 +2741,10 @@
         <v>323.1064385953827</v>
       </c>
       <c r="F100" t="n">
-        <v>-654072567.1845216</v>
+        <v>-5490665.068461061</v>
+      </c>
+      <c r="G100" t="n">
+        <v>311.2493005892742</v>
       </c>
     </row>
     <row r="101">
@@ -2462,7 +2764,10 @@
         <v>323.8101914942517</v>
       </c>
       <c r="F101" t="n">
-        <v>-667671024.4169828</v>
+        <v>-5652518.288455063</v>
+      </c>
+      <c r="G101" t="n">
+        <v>311.5680260517631</v>
       </c>
     </row>
     <row r="102">
@@ -2482,7 +2787,10 @@
         <v>324.5020973144498</v>
       </c>
       <c r="F102" t="n">
-        <v>-681381589.7800275</v>
+        <v>-5814726.678455257</v>
+      </c>
+      <c r="G102" t="n">
+        <v>311.8885681593712</v>
       </c>
     </row>
   </sheetData>

--- a/res/thermodynamic_properties_oh.xlsx
+++ b/res/thermodynamic_properties_oh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Heat Capacity (Cp)</t>
+          <t>Experimental Cp</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,22 +451,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Fitted Enthalpy (H)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Enthalpy (H)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Entropy (S)</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gibbs Potential</t>
+          <t>Experimental Entropy (S)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phi (Ф)</t>
+          <t>Fitted Entropy (S)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Experimental Phi (Φ)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Fitted Phi (Φ)</t>
         </is>
       </c>
     </row>
@@ -478,19 +488,25 @@
         <v>31.628</v>
       </c>
       <c r="C2" t="n">
-        <v>32.1164096404467</v>
+        <v>32.08446502569285</v>
       </c>
       <c r="D2" t="n">
         <v>2.744</v>
       </c>
       <c r="E2" t="n">
+        <v>2.744</v>
+      </c>
+      <c r="F2" t="n">
         <v>149.978</v>
       </c>
-      <c r="F2" t="n">
-        <v>-12253.8</v>
-      </c>
       <c r="G2" t="n">
-        <v>4359.71056</v>
+        <v>149.978</v>
+      </c>
+      <c r="H2" t="n">
+        <v>122.539</v>
+      </c>
+      <c r="I2" t="n">
+        <v>121.66372267</v>
       </c>
     </row>
     <row r="3">
@@ -501,19 +517,25 @@
         <v>30.515</v>
       </c>
       <c r="C3" t="n">
-        <v>29.19137640663168</v>
+        <v>29.25904099789206</v>
       </c>
       <c r="D3" t="n">
-        <v>5.753182729522937</v>
+        <v>5.757063778639021</v>
       </c>
       <c r="E3" t="n">
-        <v>170.9461000430691</v>
+        <v>5.853</v>
       </c>
       <c r="F3" t="n">
-        <v>-28436.03727909088</v>
+        <v>171.579</v>
       </c>
       <c r="G3" t="n">
-        <v>2260.751420481807</v>
+        <v>170.9692743214682</v>
+      </c>
+      <c r="H3" t="n">
+        <v>142.312</v>
+      </c>
+      <c r="I3" t="n">
+        <v>140.4005197832554</v>
       </c>
     </row>
     <row r="4">
@@ -524,19 +546,25 @@
         <v>29.886</v>
       </c>
       <c r="C4" t="n">
-        <v>29.00649726353024</v>
+        <v>29.07256227111797</v>
       </c>
       <c r="D4" t="n">
-        <v>8.603334131116691</v>
+        <v>8.613988858679868</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5429934178395</v>
+        <v>8.813000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>-45821.85935641215</v>
+        <v>183.682</v>
       </c>
       <c r="G4" t="n">
-        <v>1574.822257327791</v>
+        <v>182.5937410408924</v>
+      </c>
+      <c r="H4" t="n">
+        <v>154.068</v>
+      </c>
+      <c r="I4" t="n">
+        <v>151.3168300743783</v>
       </c>
     </row>
     <row r="5">
@@ -547,19 +575,25 @@
         <v>29.879</v>
       </c>
       <c r="C5" t="n">
-        <v>29.00836407985118</v>
+        <v>29.07421047192845</v>
       </c>
       <c r="D5" t="n">
-        <v>8.656997866079722</v>
+        <v>8.667774606746818</v>
       </c>
       <c r="E5" t="n">
-        <v>182.7224265760919</v>
+        <v>8.868</v>
       </c>
       <c r="F5" t="n">
-        <v>-46159.73010674785</v>
+        <v>183.813</v>
       </c>
       <c r="G5" t="n">
-        <v>1566.236910362939</v>
+        <v>182.7735819436697</v>
+      </c>
+      <c r="H5" t="n">
+        <v>154.251</v>
+      </c>
+      <c r="I5" t="n">
+        <v>151.4877938293983</v>
       </c>
     </row>
     <row r="6">
@@ -570,19 +604,25 @@
         <v>29.604</v>
       </c>
       <c r="C6" t="n">
-        <v>29.22205361452935</v>
+        <v>29.27250959857874</v>
       </c>
       <c r="D6" t="n">
-        <v>11.56703713910855</v>
+        <v>11.58367352543104</v>
       </c>
       <c r="E6" t="n">
-        <v>191.0926187680967</v>
+        <v>11.841</v>
       </c>
       <c r="F6" t="n">
-        <v>-64870.01036813013</v>
+        <v>192.365</v>
       </c>
       <c r="G6" t="n">
-        <v>1221.446108327478</v>
+        <v>191.1607222056263</v>
+      </c>
+      <c r="H6" t="n">
+        <v>162.764</v>
+      </c>
+      <c r="I6" t="n">
+        <v>159.515107310455</v>
       </c>
     </row>
     <row r="7">
@@ -593,19 +633,25 @@
         <v>29.495</v>
       </c>
       <c r="C7" t="n">
-        <v>29.54357282768948</v>
+        <v>29.57585581730643</v>
       </c>
       <c r="D7" t="n">
-        <v>14.50483702694626</v>
+        <v>14.52561756243622</v>
       </c>
       <c r="E7" t="n">
-        <v>197.6468168121902</v>
+        <v>14.795</v>
       </c>
       <c r="F7" t="n">
-        <v>-84318.57137914884</v>
+        <v>198.957</v>
       </c>
       <c r="G7" t="n">
-        <v>1016.048133084244</v>
+        <v>197.7242206898592</v>
+      </c>
+      <c r="H7" t="n">
+        <v>169.368</v>
+      </c>
+      <c r="I7" t="n">
+        <v>165.8574486122471</v>
       </c>
     </row>
     <row r="8">
@@ -616,19 +662,25 @@
         <v>29.513</v>
       </c>
       <c r="C8" t="n">
-        <v>29.90170267144739</v>
+        <v>29.91566312732659</v>
       </c>
       <c r="D8" t="n">
-        <v>17.47693156011432</v>
+        <v>17.50001992516151</v>
       </c>
       <c r="E8" t="n">
-        <v>203.0646228799939</v>
+        <v>17.733</v>
       </c>
       <c r="F8" t="n">
-        <v>-104361.842167882</v>
+        <v>204.334</v>
       </c>
       <c r="G8" t="n">
-        <v>880.1072753938698</v>
+        <v>203.146255985594</v>
+      </c>
+      <c r="H8" t="n">
+        <v>174.761</v>
+      </c>
+      <c r="I8" t="n">
+        <v>171.1265819681918</v>
       </c>
     </row>
     <row r="9">
@@ -639,19 +691,25 @@
         <v>29.655</v>
       </c>
       <c r="C9" t="n">
-        <v>30.27209380892413</v>
+        <v>30.268458791249</v>
       </c>
       <c r="D9" t="n">
-        <v>20.48557414944977</v>
+        <v>20.50917002823469</v>
       </c>
       <c r="E9" t="n">
-        <v>207.7017684707115</v>
+        <v>20.701</v>
       </c>
       <c r="F9" t="n">
-        <v>-124905.6637800482</v>
+        <v>208.893</v>
       </c>
       <c r="G9" t="n">
-        <v>783.7216831512839</v>
+        <v>207.7841827660433</v>
+      </c>
+      <c r="H9" t="n">
+        <v>179.32</v>
+      </c>
+      <c r="I9" t="n">
+        <v>175.6502794748266</v>
       </c>
     </row>
     <row r="10">
@@ -662,19 +720,25 @@
         <v>29.914</v>
       </c>
       <c r="C10" t="n">
-        <v>30.64462247320675</v>
+        <v>30.62446253683965</v>
       </c>
       <c r="D10" t="n">
-        <v>23.53141804318533</v>
+        <v>23.55381350040562</v>
       </c>
       <c r="E10" t="n">
-        <v>211.7684155281449</v>
+        <v>23.679</v>
       </c>
       <c r="F10" t="n">
-        <v>-145883.3143793306</v>
+        <v>212.868</v>
       </c>
       <c r="G10" t="n">
-        <v>711.9747287016093</v>
+        <v>211.8492086644903</v>
+      </c>
+      <c r="H10" t="n">
+        <v>183.242</v>
+      </c>
+      <c r="I10" t="n">
+        <v>179.6251523800641</v>
       </c>
     </row>
     <row r="11">
@@ -685,19 +749,25 @@
         <v>30.265</v>
       </c>
       <c r="C11" t="n">
-        <v>31.01449461094915</v>
+        <v>30.97902407382523</v>
       </c>
       <c r="D11" t="n">
-        <v>26.61440981266501</v>
+        <v>26.6340121868441</v>
       </c>
       <c r="E11" t="n">
-        <v>215.3992788194868</v>
+        <v>26.687</v>
       </c>
       <c r="F11" t="n">
-        <v>-167244.9411248731</v>
+        <v>216.411</v>
       </c>
       <c r="G11" t="n">
-        <v>656.5981407945117</v>
+        <v>215.4767503203449</v>
+      </c>
+      <c r="H11" t="n">
+        <v>186.759</v>
+      </c>
+      <c r="I11" t="n">
+        <v>183.1785849560435</v>
       </c>
     </row>
     <row r="12">
@@ -708,19 +778,25 @@
         <v>30.682</v>
       </c>
       <c r="C12" t="n">
-        <v>31.37922363127816</v>
+        <v>31.32971410199363</v>
       </c>
       <c r="D12" t="n">
-        <v>29.73414674663848</v>
+        <v>29.74948815005897</v>
       </c>
       <c r="E12" t="n">
-        <v>218.6859687072129</v>
+        <v>29.734</v>
       </c>
       <c r="F12" t="n">
-        <v>-188951.8219605744</v>
+        <v>219.621</v>
       </c>
       <c r="G12" t="n">
-        <v>612.6420878138277</v>
+        <v>218.7589074721915</v>
+      </c>
+      <c r="H12" t="n">
+        <v>189.887</v>
+      </c>
+      <c r="I12" t="n">
+        <v>186.3978918390356</v>
       </c>
     </row>
     <row r="13">
@@ -731,19 +807,25 @@
         <v>31.135</v>
       </c>
       <c r="C13" t="n">
-        <v>31.73743387561557</v>
+        <v>31.67517262111695</v>
       </c>
       <c r="D13" t="n">
-        <v>32.89003930321616</v>
+        <v>32.8997800339523</v>
       </c>
       <c r="E13" t="n">
-        <v>221.6936475546167</v>
+        <v>32.825</v>
       </c>
       <c r="F13" t="n">
-        <v>-210972.9730068622</v>
+        <v>222.566</v>
       </c>
       <c r="G13" t="n">
-        <v>576.96371178869</v>
+        <v>221.7611948341819</v>
+      </c>
+      <c r="H13" t="n">
+        <v>192.726</v>
+      </c>
+      <c r="I13" t="n">
+        <v>189.3455595192463</v>
       </c>
     </row>
     <row r="14">
@@ -754,19 +836,25 @@
         <v>31.603</v>
       </c>
       <c r="C14" t="n">
-        <v>32.0883300409055</v>
+        <v>32.01459823760212</v>
       </c>
       <c r="D14" t="n">
-        <v>36.08139233584816</v>
+        <v>36.08432124584643</v>
       </c>
       <c r="E14" t="n">
-        <v>224.4703363106855</v>
+        <v>35.961</v>
       </c>
       <c r="F14" t="n">
-        <v>-233283.0112369744</v>
+        <v>225.296</v>
       </c>
       <c r="G14" t="n">
-        <v>547.4724415371988</v>
+        <v>224.5318938551853</v>
+      </c>
+      <c r="H14" t="n">
+        <v>195.328</v>
+      </c>
+      <c r="I14" t="n">
+        <v>192.0678594869932</v>
       </c>
     </row>
     <row r="15">
@@ -777,19 +865,25 @@
         <v>32.069</v>
       </c>
       <c r="C15" t="n">
-        <v>32.43144032205507</v>
+        <v>32.34750093269709</v>
       </c>
       <c r="D15" t="n">
-        <v>39.30744883039036</v>
+        <v>39.30248205449856</v>
       </c>
       <c r="E15" t="n">
-        <v>227.0524527983233</v>
+        <v>39.145</v>
       </c>
       <c r="F15" t="n">
-        <v>-255860.73980743</v>
+        <v>227.844</v>
       </c>
       <c r="G15" t="n">
-        <v>522.7241787373844</v>
+        <v>227.1076191727603</v>
+      </c>
+      <c r="H15" t="n">
+        <v>197.732</v>
+      </c>
+      <c r="I15" t="n">
+        <v>194.6000197754492</v>
       </c>
     </row>
     <row r="16">
@@ -800,19 +894,25 @@
         <v>32.522</v>
       </c>
       <c r="C16" t="n">
-        <v>32.76648302508395</v>
+        <v>32.67357367432739</v>
       </c>
       <c r="D16" t="n">
-        <v>42.56741489771404</v>
+        <v>42.55359364610914</v>
       </c>
       <c r="E16" t="n">
-        <v>229.4682776961265</v>
+        <v>42.375</v>
       </c>
       <c r="F16" t="n">
-        <v>-278688.1738768631</v>
+        <v>230.237</v>
       </c>
       <c r="G16" t="n">
-        <v>501.6897189014038</v>
+        <v>229.516802817719</v>
+      </c>
+      <c r="H16" t="n">
+        <v>199.969</v>
+      </c>
+      <c r="I16" t="n">
+        <v>196.9694848032498</v>
       </c>
     </row>
     <row r="17">
@@ -823,19 +923,25 @@
         <v>32.956</v>
       </c>
       <c r="C17" t="n">
-        <v>33.09329319970987</v>
+        <v>32.99262179913357</v>
       </c>
       <c r="D17" t="n">
-        <v>45.86047476927177</v>
+        <v>45.83696255792674</v>
       </c>
       <c r="E17" t="n">
-        <v>231.7402149014633</v>
+        <v>45.649</v>
       </c>
       <c r="F17" t="n">
-        <v>-301749.8475829232</v>
+        <v>232.496</v>
       </c>
       <c r="G17" t="n">
-        <v>483.615991405436</v>
+        <v>231.7819667580713</v>
+      </c>
+      <c r="H17" t="n">
+        <v>202.063</v>
+      </c>
+      <c r="I17" t="n">
+        <v>199.1980539491709</v>
       </c>
     </row>
     <row r="18">
@@ -846,19 +952,25 @@
         <v>33.367</v>
       </c>
       <c r="C18" t="n">
-        <v>33.4117802993002</v>
+        <v>33.3045222591208</v>
       </c>
       <c r="D18" t="n">
-        <v>49.18580016932605</v>
+        <v>49.15187969925128</v>
       </c>
       <c r="E18" t="n">
-        <v>233.8863172515764</v>
+        <v>48.965</v>
       </c>
       <c r="F18" t="n">
-        <v>-325032.3074331962</v>
+        <v>234.636</v>
       </c>
       <c r="G18" t="n">
-        <v>467.9394510206419</v>
+        <v>233.9212569985445</v>
+      </c>
+      <c r="H18" t="n">
+        <v>204.032</v>
+      </c>
+      <c r="I18" t="n">
+        <v>201.3033322625293</v>
       </c>
     </row>
     <row r="19">
@@ -869,19 +981,25 @@
         <v>33.753</v>
       </c>
       <c r="C19" t="n">
-        <v>33.7219027301614</v>
+        <v>33.60919912471657</v>
       </c>
       <c r="D19" t="n">
-        <v>52.54255637933284</v>
+        <v>52.49762618855367</v>
       </c>
       <c r="E19" t="n">
-        <v>235.9213468731372</v>
+        <v>52.322</v>
       </c>
       <c r="F19" t="n">
-        <v>-348523.7333050004</v>
+        <v>236.67</v>
       </c>
       <c r="G19" t="n">
-        <v>454.2301122050712</v>
+        <v>235.949509839586</v>
+      </c>
+      <c r="H19" t="n">
+        <v>205.893</v>
+      </c>
+      <c r="I19" t="n">
+        <v>203.2997429536778</v>
       </c>
     </row>
     <row r="20">
@@ -892,19 +1010,25 @@
         <v>34.114</v>
       </c>
       <c r="C20" t="n">
-        <v>34.02365200743262</v>
+        <v>33.90660833442382</v>
       </c>
       <c r="D20" t="n">
-        <v>55.92990628086365</v>
+        <v>55.87347724488892</v>
       </c>
       <c r="E20" t="n">
-        <v>237.8575308293981</v>
+        <v>55.715</v>
       </c>
       <c r="F20" t="n">
-        <v>-372213.6492120528</v>
+        <v>238.61</v>
       </c>
       <c r="G20" t="n">
-        <v>442.1542885032066</v>
+        <v>237.8790117857754</v>
+      </c>
+      <c r="H20" t="n">
+        <v>207.657</v>
+      </c>
+      <c r="I20" t="n">
+        <v>205.1992515659233</v>
       </c>
     </row>
     <row r="21">
@@ -915,19 +1039,25 @@
         <v>34.451</v>
       </c>
       <c r="C21" t="n">
-        <v>34.31704258633501</v>
+        <v>34.19672790714547</v>
       </c>
       <c r="D21" t="n">
-        <v>59.34701312181572</v>
+        <v>59.27870485044197</v>
       </c>
       <c r="E21" t="n">
-        <v>239.7051114963578</v>
+        <v>59.144</v>
       </c>
       <c r="F21" t="n">
-        <v>-396092.6987212641</v>
+        <v>240.464</v>
       </c>
       <c r="G21" t="n">
-        <v>431.4491324779697</v>
+        <v>239.7200530555576</v>
+      </c>
+      <c r="H21" t="n">
+        <v>209.335</v>
+      </c>
+      <c r="I21" t="n">
+        <v>207.0118950992972</v>
       </c>
     </row>
     <row r="22">
@@ -935,22 +1065,28 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>34.766</v>
+        <v>33.766</v>
       </c>
       <c r="C22" t="n">
-        <v>34.60210515897785</v>
+        <v>34.47955149019329</v>
       </c>
       <c r="D22" t="n">
-        <v>62.79304245275885</v>
+        <v>62.71257961430967</v>
       </c>
       <c r="E22" t="n">
-        <v>241.4727551746238</v>
+        <v>62.605</v>
       </c>
       <c r="F22" t="n">
-        <v>-420152.4678964888</v>
+        <v>242.239</v>
       </c>
       <c r="G22" t="n">
-        <v>421.904837427018</v>
+        <v>241.4813385379727</v>
+      </c>
+      <c r="H22" t="n">
+        <v>210.936</v>
+      </c>
+      <c r="I22" t="n">
+        <v>208.7461759374501</v>
       </c>
     </row>
     <row r="23">
@@ -961,19 +1097,25 @@
         <v>35.059</v>
       </c>
       <c r="C23" t="n">
-        <v>34.87888212981135</v>
+        <v>34.75508400429877</v>
       </c>
       <c r="D23" t="n">
-        <v>66.26716351004059</v>
+        <v>66.17437210377388</v>
       </c>
       <c r="E23" t="n">
-        <v>243.1678606327873</v>
+        <v>66.096</v>
       </c>
       <c r="F23" t="n">
-        <v>-444385.3438188126</v>
+        <v>243.942</v>
       </c>
       <c r="G23" t="n">
-        <v>413.3519412644299</v>
+        <v>243.1702981183438</v>
+      </c>
+      <c r="H23" t="n">
+        <v>212.468</v>
+      </c>
+      <c r="I23" t="n">
+        <v>210.4093600347813</v>
       </c>
     </row>
     <row r="24">
@@ -984,19 +1126,25 @@
         <v>35.334</v>
       </c>
       <c r="C24" t="n">
-        <v>35.14742449650627</v>
+        <v>35.02333864138204</v>
       </c>
       <c r="D24" t="n">
-        <v>69.76855022168057</v>
+        <v>69.66335381249968</v>
       </c>
       <c r="E24" t="n">
-        <v>244.7967956320015</v>
+        <v>69.616</v>
       </c>
       <c r="F24" t="n">
-        <v>-468784.4001687228</v>
+        <v>245.58</v>
       </c>
       <c r="G24" t="n">
-        <v>405.6521052811369</v>
+        <v>244.793324576759</v>
+      </c>
+      <c r="H24" t="n">
+        <v>213.936</v>
+      </c>
+      <c r="I24" t="n">
+        <v>212.0077060035488</v>
       </c>
     </row>
     <row r="25">
@@ -1007,19 +1155,25 @@
         <v>35.591</v>
       </c>
       <c r="C25" t="n">
-        <v>35.40778965860713</v>
+        <v>35.28433475532608</v>
       </c>
       <c r="D25" t="n">
-        <v>73.29638195085803</v>
+        <v>73.17879787616062</v>
       </c>
       <c r="E25" t="n">
-        <v>246.3650807137684</v>
+        <v>73.16200000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>-493343.3036908093</v>
+        <v>247.156</v>
       </c>
       <c r="G25" t="n">
-        <v>398.6913075255906</v>
+        <v>246.3559584484888</v>
+      </c>
+      <c r="H25" t="n">
+        <v>215.346</v>
+      </c>
+      <c r="I25" t="n">
+        <v>213.5466434726226</v>
       </c>
     </row>
     <row r="26">
@@ -1030,19 +1184,25 @@
         <v>35.833</v>
       </c>
       <c r="C26" t="n">
-        <v>35.66003985146881</v>
+        <v>35.53809635460166</v>
       </c>
       <c r="D26" t="n">
-        <v>76.84984405352715</v>
+        <v>76.71997960915722</v>
       </c>
       <c r="E26" t="n">
-        <v>247.8775337647646</v>
+        <v>76.73399999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>-518056.2369819078</v>
+        <v>248.676</v>
       </c>
       <c r="G26" t="n">
-        <v>392.3747446407726</v>
+        <v>247.8630334359624</v>
+      </c>
+      <c r="H26" t="n">
+        <v>216.704</v>
+      </c>
+      <c r="I26" t="n">
+        <v>215.0309136307437</v>
       </c>
     </row>
     <row r="27">
@@ -1053,19 +1213,25 @@
         <v>36.06</v>
       </c>
       <c r="C27" t="n">
-        <v>35.90424100957933</v>
+        <v>35.7846510081873</v>
       </c>
       <c r="D27" t="n">
-        <v>80.4281283022048</v>
+        <v>80.28617691252332</v>
       </c>
       <c r="E27" t="n">
-        <v>249.3383849963609</v>
+        <v>80.328</v>
       </c>
       <c r="F27" t="n">
-        <v>-542917.8341886975</v>
+        <v>250.143</v>
       </c>
       <c r="G27" t="n">
-        <v>386.6229624241581</v>
+        <v>249.3187920644393</v>
+      </c>
+      <c r="H27" t="n">
+        <v>218.012</v>
+      </c>
+      <c r="I27" t="n">
+        <v>216.4646811871734</v>
       </c>
     </row>
     <row r="28">
@@ -1076,19 +1242,25 @@
         <v>36.275</v>
       </c>
       <c r="C28" t="n">
-        <v>36.14046192980717</v>
+        <v>36.02402904017395</v>
       </c>
       <c r="D28" t="n">
-        <v>84.03043321196117</v>
+        <v>83.87667058769996</v>
       </c>
       <c r="E28" t="n">
-        <v>250.751369321379</v>
+        <v>83.94499999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>-567923.1270236243</v>
+        <v>251.562</v>
       </c>
       <c r="G28" t="n">
-        <v>381.3688833040047</v>
+        <v>250.7269786036657</v>
+      </c>
+      <c r="H28" t="n">
+        <v>219.275</v>
+      </c>
+      <c r="I28" t="n">
+        <v>217.851624454682</v>
       </c>
     </row>
     <row r="29">
@@ -1099,19 +1271,25 @@
         <v>36.479</v>
       </c>
       <c r="C29" t="n">
-        <v>36.36877364742401</v>
+        <v>36.25626292917136</v>
       </c>
       <c r="D29" t="n">
-        <v>87.65596429396794</v>
+        <v>87.49074458058207</v>
       </c>
       <c r="E29" t="n">
-        <v>252.1198012601105</v>
+        <v>87.583</v>
       </c>
       <c r="F29" t="n">
-        <v>-593067.4991083305</v>
+        <v>252.935</v>
       </c>
       <c r="G29" t="n">
-        <v>376.5554974607542</v>
+        <v>252.0909144169265</v>
+      </c>
+      <c r="H29" t="n">
+        <v>220.497</v>
+      </c>
+      <c r="I29" t="n">
+        <v>219.1950084933565</v>
       </c>
     </row>
     <row r="30">
@@ -1122,19 +1300,25 @@
         <v>36.673</v>
       </c>
       <c r="C30" t="n">
-        <v>36.58924896524119</v>
+        <v>36.48138685509014</v>
       </c>
       <c r="D30" t="n">
-        <v>91.30393425471492</v>
+        <v>91.12768617326913</v>
       </c>
       <c r="E30" t="n">
-        <v>253.4466361973162</v>
+        <v>91.241</v>
       </c>
       <c r="F30" t="n">
-        <v>-618346.6470977705</v>
+        <v>254.265</v>
       </c>
       <c r="G30" t="n">
-        <v>372.134051129827</v>
+        <v>253.4135595812095</v>
+      </c>
+      <c r="H30" t="n">
+        <v>221.679</v>
+      </c>
+      <c r="I30" t="n">
+        <v>220.4977449999594</v>
       </c>
     </row>
     <row r="31">
@@ -1145,19 +1329,25 @@
         <v>36.858</v>
       </c>
       <c r="C31" t="n">
-        <v>36.80196209437896</v>
+        <v>36.69943635337336</v>
       </c>
       <c r="D31" t="n">
-        <v>94.97356315400904</v>
+        <v>94.78678613614326</v>
       </c>
       <c r="E31" t="n">
-        <v>254.7345208706145</v>
+        <v>94.917</v>
       </c>
       <c r="F31" t="n">
-        <v>-643756.547370773</v>
+        <v>255.555</v>
       </c>
       <c r="G31" t="n">
-        <v>368.0626116577997</v>
+        <v>254.6975636755448</v>
+      </c>
+      <c r="H31" t="n">
+        <v>222.825</v>
+      </c>
+      <c r="I31" t="n">
+        <v>221.7624417249411</v>
       </c>
     </row>
     <row r="32">
@@ -1168,19 +1358,25 @@
         <v>37.036</v>
       </c>
       <c r="C32" t="n">
-        <v>37.00698837741522</v>
+        <v>36.91044804852019</v>
       </c>
       <c r="D32" t="n">
-        <v>98.66407853137399</v>
+        <v>98.467338849532</v>
       </c>
       <c r="E32" t="n">
-        <v>255.9858352853949</v>
+        <v>98.61199999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>-669293.4273248106</v>
+        <v>256.808</v>
       </c>
       <c r="G32" t="n">
-        <v>364.3049210820931</v>
+        <v>255.9453079453997</v>
+      </c>
+      <c r="H32" t="n">
+        <v>223.937</v>
+      </c>
+      <c r="I32" t="n">
+        <v>222.9914435407988</v>
       </c>
     </row>
     <row r="33">
@@ -1191,19 +1387,25 @@
         <v>37.206</v>
       </c>
       <c r="C33" t="n">
-        <v>37.20440407301006</v>
+        <v>37.11445944678172</v>
       </c>
       <c r="D33" t="n">
-        <v>102.3747155079852</v>
+        <v>102.1686424018233</v>
       </c>
       <c r="E33" t="n">
-        <v>257.202727746363</v>
+        <v>102.324</v>
       </c>
       <c r="F33" t="n">
-        <v>-694953.74050574</v>
+        <v>258.025</v>
       </c>
       <c r="G33" t="n">
-        <v>360.8294728355588</v>
+        <v>257.1589405430847</v>
+      </c>
+      <c r="H33" t="n">
+        <v>225.017</v>
+      </c>
+      <c r="I33" t="n">
+        <v>224.1868667993478</v>
       </c>
     </row>
     <row r="34">
@@ -1214,19 +1416,25 @@
         <v>37.371</v>
       </c>
       <c r="C34" t="n">
-        <v>37.39428618688602</v>
+        <v>37.31150877347524</v>
       </c>
       <c r="D34" t="n">
-        <v>106.1047168694918</v>
+        <v>105.8899986691836</v>
       </c>
       <c r="E34" t="n">
-        <v>258.3871443193935</v>
+        <v>106.053</v>
       </c>
       <c r="F34" t="n">
-        <v>-720734.1449525673</v>
+        <v>259.209</v>
       </c>
       <c r="G34" t="n">
-        <v>357.6087625736556</v>
+        <v>258.3404061655225</v>
+      </c>
+      <c r="H34" t="n">
+        <v>226.067</v>
+      </c>
+      <c r="I34" t="n">
+        <v>225.3506282525264</v>
       </c>
     </row>
     <row r="35">
@@ -1237,19 +1445,25 @@
         <v>37.53</v>
       </c>
       <c r="C35" t="n">
-        <v>37.57671233810235</v>
+        <v>37.50163484426989</v>
       </c>
       <c r="D35" t="n">
-        <v>109.8533331337808</v>
+        <v>109.6307133807824</v>
       </c>
       <c r="E35" t="n">
-        <v>259.5408537538194</v>
+        <v>109.798</v>
       </c>
       <c r="F35" t="n">
-        <v>-746631.4842538233</v>
+        <v>260.361</v>
       </c>
       <c r="G35" t="n">
-        <v>354.6186760365726</v>
+        <v>259.4914711255506</v>
+      </c>
+      <c r="H35" t="n">
+        <v>226.089</v>
+      </c>
+      <c r="I35" t="n">
+        <v>226.4844695375327</v>
       </c>
     </row>
     <row r="36">
@@ -1260,19 +1474,25 @@
         <v>37.685</v>
       </c>
       <c r="C36" t="n">
-        <v>37.75176065244513</v>
+        <v>37.68487696257198</v>
       </c>
       <c r="D36" t="n">
-        <v>113.6198226067816</v>
+        <v>113.3900961725061</v>
       </c>
       <c r="E36" t="n">
-        <v>260.6654686796062</v>
+        <v>113.559</v>
       </c>
       <c r="F36" t="n">
-        <v>-772642.7709038797</v>
+        <v>261.484</v>
       </c>
       <c r="G36" t="n">
-        <v>351.8379856121391</v>
+        <v>260.613744675991</v>
+      </c>
+      <c r="H36" t="n">
+        <v>227.084</v>
+      </c>
+      <c r="I36" t="n">
+        <v>227.5899780185136</v>
       </c>
     </row>
     <row r="37">
@@ -1283,19 +1503,25 @@
         <v>37.835</v>
       </c>
       <c r="C37" t="n">
-        <v>37.91950967682664</v>
+        <v>37.86127483713231</v>
       </c>
       <c r="D37" t="n">
-        <v>117.4034514287056</v>
+        <v>117.167460631464</v>
       </c>
       <c r="E37" t="n">
-        <v>261.762463728301</v>
+        <v>117.335</v>
       </c>
       <c r="F37" t="n">
-        <v>-798765.171620348</v>
+        <v>262.578</v>
       </c>
       <c r="G37" t="n">
-        <v>349.2479337625484</v>
+        <v>261.7086972391992</v>
+      </c>
+      <c r="H37" t="n">
+        <v>229.054</v>
+      </c>
+      <c r="I37" t="n">
+        <v>228.6686046166912</v>
       </c>
     </row>
     <row r="38">
@@ -1306,19 +1532,25 @@
         <v>37.982</v>
       </c>
       <c r="C38" t="n">
-        <v>38.08003831009223</v>
+        <v>38.030868515446</v>
       </c>
       <c r="D38" t="n">
-        <v>121.2034936125776</v>
+        <v>120.9621243330761</v>
       </c>
       <c r="E38" t="n">
-        <v>262.8331910984693</v>
+        <v>121.126</v>
       </c>
       <c r="F38" t="n">
-        <v>-824995.9943419121</v>
+        <v>263.646</v>
       </c>
       <c r="G38" t="n">
-        <v>346.8318863467499</v>
+        <v>262.7776760658804</v>
+      </c>
+      <c r="H38" t="n">
+        <v>230</v>
+      </c>
+      <c r="I38" t="n">
+        <v>229.7216791365358</v>
       </c>
     </row>
     <row r="39">
@@ -1329,19 +1561,25 @@
         <v>38.125</v>
       </c>
       <c r="C39" t="n">
-        <v>38.23342574673647</v>
+        <v>38.19369832957784</v>
       </c>
       <c r="D39" t="n">
-        <v>125.0192310765202</v>
+        <v>124.7734088721479</v>
       </c>
       <c r="E39" t="n">
-        <v>263.8788939863061</v>
+        <v>124.931</v>
       </c>
       <c r="F39" t="n">
-        <v>-851332.6766728126</v>
+        <v>264.689</v>
       </c>
       <c r="G39" t="n">
-        <v>344.5750425518206</v>
+        <v>263.8219187463476</v>
+      </c>
+      <c r="H39" t="n">
+        <v>230.924</v>
+      </c>
+      <c r="I39" t="n">
+        <v>230.7504234984862</v>
       </c>
     </row>
     <row r="40">
@@ -1352,19 +1590,25 @@
         <v>38.265</v>
       </c>
       <c r="C40" t="n">
-        <v>38.37975143084758</v>
+        <v>38.34980485183283</v>
       </c>
       <c r="D40" t="n">
-        <v>128.84995367094</v>
+        <v>128.6006398890369</v>
       </c>
       <c r="E40" t="n">
-        <v>264.900718223454</v>
+        <v>128.751</v>
       </c>
       <c r="F40" t="n">
-        <v>-877772.7755781852</v>
+        <v>265.707</v>
       </c>
       <c r="G40" t="n">
-        <v>342.4641909538195</v>
+        <v>264.8425649182801</v>
+      </c>
+      <c r="H40" t="n">
+        <v>231.826</v>
+      </c>
+      <c r="I40" t="n">
+        <v>231.755963212282</v>
       </c>
     </row>
     <row r="41">
@@ -1375,19 +1619,25 @@
         <v>38.402</v>
       </c>
       <c r="C41" t="n">
-        <v>38.51909501820984</v>
+        <v>38.49922885827865</v>
       </c>
       <c r="D41" t="n">
-        <v>132.694959201531</v>
+        <v>132.4431470917953</v>
       </c>
       <c r="E41" t="n">
-        <v>265.8997224017829</v>
+        <v>132.584</v>
       </c>
       <c r="F41" t="n">
-        <v>-904313.9581654222</v>
+        <v>266.703</v>
       </c>
       <c r="G41" t="n">
-        <v>340.4875033862104</v>
+        <v>265.8406664523982</v>
+      </c>
+      <c r="H41" t="n">
+        <v>232.707</v>
+      </c>
+      <c r="I41" t="n">
+        <v>232.7393373643799</v>
       </c>
     </row>
     <row r="42">
@@ -1398,19 +1648,25 @@
         <v>38.535</v>
       </c>
       <c r="C42" t="n">
-        <v>38.65153634495335</v>
+        <v>38.64201129857028</v>
       </c>
       <c r="D42" t="n">
-        <v>136.5535534488287</v>
+        <v>136.3002642749897</v>
       </c>
       <c r="E42" t="n">
-        <v>266.876886715238</v>
+        <v>136.431</v>
       </c>
       <c r="F42" t="n">
-        <v>-930953.9934121233</v>
+        <v>267.677</v>
       </c>
       <c r="G42" t="n">
-        <v>338.6343599646686</v>
+        <v>266.8171963475284</v>
+      </c>
+      <c r="H42" t="n">
+        <v>233.569</v>
+      </c>
+      <c r="I42" t="n">
+        <v>233.7015073445849</v>
       </c>
     </row>
     <row r="43">
@@ -1421,19 +1677,25 @@
         <v>38.666</v>
       </c>
       <c r="C43" t="n">
-        <v>38.77715540148937</v>
+        <v>38.7781932708622</v>
       </c>
       <c r="D43" t="n">
-        <v>140.4250501849009</v>
+        <v>140.1713293357681</v>
       </c>
       <c r="E43" t="n">
-        <v>267.8331207090396</v>
+        <v>140.291</v>
       </c>
       <c r="F43" t="n">
-        <v>-957690.7447221614</v>
+        <v>268.63</v>
       </c>
       <c r="G43" t="n">
-        <v>336.8951999199943</v>
+        <v>267.7730565264735</v>
+      </c>
+      <c r="H43" t="n">
+        <v>234.413</v>
+      </c>
+      <c r="I43" t="n">
+        <v>234.6433644982021</v>
       </c>
     </row>
     <row r="44">
@@ -1444,19 +1706,25 @@
         <v>38.793</v>
       </c>
       <c r="C44" t="n">
-        <v>38.89603231073707</v>
+        <v>38.90781600085104</v>
       </c>
       <c r="D44" t="n">
-        <v>144.3087711876559</v>
+        <v>144.0556842876302</v>
       </c>
       <c r="E44" t="n">
-        <v>268.7692700943801</v>
+        <v>144.164</v>
       </c>
       <c r="F44" t="n">
-        <v>-984522.1632087405</v>
+        <v>269.563</v>
       </c>
       <c r="G44" t="n">
-        <v>335.261393913703</v>
+        <v>268.7090846917788</v>
+      </c>
+      <c r="H44" t="n">
+        <v>235.239</v>
+      </c>
+      <c r="I44" t="n">
+        <v>235.5657368586716</v>
       </c>
     </row>
     <row r="45">
@@ -1467,19 +1735,25 @@
         <v>38.917</v>
       </c>
       <c r="C45" t="n">
-        <v>39.00824730985261</v>
+        <v>39.03092082418939</v>
       </c>
       <c r="D45" t="n">
-        <v>148.2040462531526</v>
+        <v>147.9526752722778</v>
       </c>
       <c r="E45" t="n">
-        <v>269.6861227606857</v>
+        <v>148.05</v>
       </c>
       <c r="F45" t="n">
-        <v>-1011446.281617796</v>
+        <v>270.478</v>
       </c>
       <c r="G45" t="n">
-        <v>333.7251343189635</v>
+        <v>269.6260603742452</v>
+      </c>
+      <c r="H45" t="n">
+        <v>236.048</v>
+      </c>
+      <c r="I45" t="n">
+        <v>236.4693950901754</v>
       </c>
     </row>
     <row r="46">
@@ -1490,19 +1764,25 @@
         <v>39.038</v>
       </c>
       <c r="C46" t="n">
-        <v>39.11388073483131</v>
+        <v>39.14754917166498</v>
       </c>
       <c r="D46" t="n">
-        <v>152.1102132062332</v>
+        <v>151.8616525698478</v>
       </c>
       <c r="E46" t="n">
-        <v>270.5844140962335</v>
+        <v>151.948</v>
       </c>
       <c r="F46" t="n">
-        <v>-1038461.208817194</v>
+        <v>271.374</v>
       </c>
       <c r="G46" t="n">
-        <v>332.2793405918155</v>
+        <v>270.5247102856459</v>
+      </c>
+      <c r="H46" t="n">
+        <v>236.84</v>
+      </c>
+      <c r="I46" t="n">
+        <v>237.3550577489289</v>
       </c>
     </row>
     <row r="47">
@@ -1513,19 +1793,25 @@
         <v>39.155</v>
       </c>
       <c r="C47" t="n">
-        <v>39.21301300747781</v>
+        <v>39.25774255665912</v>
       </c>
       <c r="D47" t="n">
-        <v>156.0266179097374</v>
+        <v>155.7819706077817</v>
       </c>
       <c r="E47" t="n">
-        <v>271.4648317104669</v>
+        <v>155.857</v>
       </c>
       <c r="F47" t="n">
-        <v>-1065565.124787364</v>
+        <v>272.252</v>
       </c>
       <c r="G47" t="n">
-        <v>330.9175773709898</v>
+        <v>271.4057130695455</v>
+      </c>
+      <c r="H47" t="n">
+        <v>237.618</v>
+      </c>
+      <c r="I47" t="n">
+        <v>238.2233959547931</v>
       </c>
     </row>
     <row r="48">
@@ -1536,19 +1822,25 @@
         <v>39.269</v>
       </c>
       <c r="C48" t="n">
-        <v>39.30572462433714</v>
+        <v>39.36154256449267</v>
       </c>
       <c r="D48" t="n">
-        <v>159.9526142725153</v>
+        <v>159.712987968538</v>
       </c>
       <c r="E48" t="n">
-        <v>272.328019636979</v>
+        <v>159.778</v>
       </c>
       <c r="F48" t="n">
-        <v>-1092756.276057588</v>
+        <v>273.114</v>
       </c>
       <c r="G48" t="n">
-        <v>329.6339833572425</v>
+        <v>272.2697035296626</v>
+      </c>
+      <c r="H48" t="n">
+        <v>238.38</v>
+      </c>
+      <c r="I48" t="n">
+        <v>239.0750375507882</v>
       </c>
     </row>
     <row r="49">
@@ -1559,19 +1851,25 @@
         <v>39.378</v>
       </c>
       <c r="C49" t="n">
-        <v>39.39209614725635</v>
+        <v>39.45899084334125</v>
       </c>
       <c r="D49" t="n">
-        <v>163.8875642564168</v>
+        <v>163.6540673963197</v>
       </c>
       <c r="E49" t="n">
-        <v>273.1745820842307</v>
+        <v>163.711</v>
       </c>
       <c r="F49" t="n">
-        <v>-1120032.971539468</v>
+        <v>273.96</v>
       </c>
       <c r="G49" t="n">
-        <v>328.4232093564279</v>
+        <v>273.1172764032473</v>
+      </c>
+      <c r="H49" t="n">
+        <v>239.128</v>
+      </c>
+      <c r="I49" t="n">
+        <v>239.9105708164327</v>
       </c>
     </row>
     <row r="50">
@@ -1582,19 +1880,25 @@
         <v>39.482</v>
       </c>
       <c r="C50" t="n">
-        <v>39.47220819530818</v>
+        <v>39.55012909646165</v>
       </c>
       <c r="D50" t="n">
-        <v>167.8308378824079</v>
+        <v>167.6045758029616</v>
       </c>
       <c r="E50" t="n">
-        <v>274.0050867911807</v>
+        <v>167.654</v>
       </c>
       <c r="F50" t="n">
-        <v>-1147393.578715259</v>
+        <v>274.79</v>
       </c>
       <c r="G50" t="n">
-        <v>327.2803641411202</v>
+        <v>273.9489897369908</v>
+      </c>
+      <c r="H50" t="n">
+        <v>239.862</v>
+      </c>
+      <c r="I50" t="n">
+        <v>240.7305477911368</v>
       </c>
     </row>
     <row r="51">
@@ -1605,19 +1909,25 @@
         <v>39.582</v>
       </c>
       <c r="C51" t="n">
-        <v>39.54614143785624</v>
+        <v>39.63499907551686</v>
       </c>
       <c r="D51" t="n">
-        <v>171.7818132359377</v>
+        <v>171.5638842730959</v>
       </c>
       <c r="E51" t="n">
-        <v>274.8200680367411</v>
+        <v>171.607</v>
       </c>
       <c r="F51" t="n">
-        <v>-1174836.520144094</v>
+        <v>275.605</v>
       </c>
       <c r="G51" t="n">
-        <v>326.2009670062974</v>
+        <v>274.7653679146758</v>
+      </c>
+      <c r="H51" t="n">
+        <v>240.584</v>
+      </c>
+      <c r="I51" t="n">
+        <v>241.5354872557814</v>
       </c>
     </row>
     <row r="52">
@@ -1628,19 +1938,25 @@
         <v>39.677</v>
       </c>
       <c r="C52" t="n">
-        <v>39.61397658858137</v>
+        <v>39.71364257482636</v>
       </c>
       <c r="D52" t="n">
-        <v>175.7398764716615</v>
+        <v>175.5313680686984</v>
       </c>
       <c r="E52" t="n">
-        <v>275.6200293450531</v>
+        <v>175.57</v>
       </c>
       <c r="F52" t="n">
-        <v>-1202360.270253604</v>
+        <v>276.406</v>
       </c>
       <c r="G52" t="n">
-        <v>325.1809060754265</v>
+        <v>275.5669043788132</v>
+      </c>
+      <c r="H52" t="n">
+        <v>241.292</v>
+      </c>
+      <c r="I52" t="n">
+        <v>242.3258774138255</v>
       </c>
     </row>
     <row r="53">
@@ -1651,19 +1967,25 @@
         <v>39.766</v>
       </c>
       <c r="C53" t="n">
-        <v>39.67579440031971</v>
+        <v>39.78610142639752</v>
       </c>
       <c r="D53" t="n">
-        <v>179.7044218176082</v>
+        <v>179.5064066330996</v>
       </c>
       <c r="E53" t="n">
-        <v>276.4054459227475</v>
+        <v>179.542</v>
       </c>
       <c r="F53" t="n">
-        <v>-1229963.352388404</v>
+        <v>277.192</v>
       </c>
       <c r="G53" t="n">
-        <v>324.2164015620758</v>
+        <v>276.3540640826474</v>
+      </c>
+      <c r="H53" t="n">
+        <v>241.988</v>
+      </c>
+      <c r="I53" t="n">
+        <v>243.1021783075605</v>
       </c>
     </row>
     <row r="54">
@@ -1674,19 +1996,25 @@
         <v>39.85</v>
       </c>
       <c r="C54" t="n">
-        <v>39.73167566058873</v>
+        <v>39.8524174956194</v>
       </c>
       <c r="D54" t="n">
-        <v>183.6748515788668</v>
+        <v>183.4883835945333</v>
       </c>
       <c r="E54" t="n">
-        <v>277.1767668594376</v>
+        <v>183.523</v>
       </c>
       <c r="F54" t="n">
-        <v>-1257644.336090209</v>
+        <v>277.965</v>
       </c>
       <c r="G54" t="n">
-        <v>323.3039733151211</v>
+        <v>277.1272857039663</v>
+      </c>
+      <c r="H54" t="n">
+        <v>242.673</v>
+      </c>
+      <c r="I54" t="n">
+        <v>243.8648240003033</v>
       </c>
     </row>
     <row r="55">
@@ -1697,19 +2025,25 @@
         <v>39.927</v>
       </c>
       <c r="C55" t="n">
-        <v>39.78170118769867</v>
+        <v>39.91263267751981</v>
       </c>
       <c r="D55" t="n">
-        <v>187.6505761408557</v>
+        <v>187.4766867692835</v>
       </c>
       <c r="E55" t="n">
-        <v>277.9344171185225</v>
+        <v>187.512</v>
       </c>
       <c r="F55" t="n">
-        <v>-1285401.834587314</v>
+        <v>278.725</v>
       </c>
       <c r="G55" t="n">
-        <v>322.4404120775798</v>
+        <v>277.8869836479556</v>
+      </c>
+      <c r="H55" t="n">
+        <v>243.346</v>
+      </c>
+      <c r="I55" t="n">
+        <v>244.6142245512201</v>
       </c>
     </row>
     <row r="56">
@@ -1720,19 +2054,25 @@
         <v>39.999</v>
       </c>
       <c r="C56" t="n">
-        <v>39.82595182736313</v>
+        <v>39.96678889350302</v>
       </c>
       <c r="D56" t="n">
-        <v>191.6310139722286</v>
+        <v>191.4707081644806</v>
       </c>
       <c r="E56" t="n">
-        <v>278.6787993418311</v>
+        <v>191.508</v>
       </c>
       <c r="F56" t="n">
-        <v>-1313234.502473659</v>
+        <v>279.472</v>
       </c>
       <c r="G56" t="n">
-        <v>321.6227539740161</v>
+        <v>278.63354986277</v>
+      </c>
+      <c r="H56" t="n">
+        <v>244.008</v>
+      </c>
+      <c r="I56" t="n">
+        <v>245.3507678059899</v>
       </c>
     </row>
     <row r="57">
@@ -1743,19 +2083,25 @@
         <v>40.063</v>
       </c>
       <c r="C57" t="n">
-        <v>39.86450844973719</v>
+        <v>40.01492808849882</v>
       </c>
       <c r="D57" t="n">
-        <v>195.6155916274636</v>
+        <v>195.4698439805945</v>
       </c>
       <c r="E57" t="n">
-        <v>279.4102954886158</v>
+        <v>195.512</v>
       </c>
       <c r="F57" t="n">
-        <v>-1341141.033559924</v>
+        <v>280.207</v>
       </c>
       <c r="G57" t="n">
-        <v>320.8482578124174</v>
+        <v>279.3673554884535</v>
+      </c>
+      <c r="H57" t="n">
+        <v>244.659</v>
+      </c>
+      <c r="I57" t="n">
+        <v>246.0748210235371</v>
       </c>
     </row>
     <row r="58">
@@ -1766,19 +2112,25 @@
         <v>40.121</v>
       </c>
       <c r="C58" t="n">
-        <v>39.89745194682229</v>
+        <v>40.05709222846472</v>
       </c>
       <c r="D58" t="n">
-        <v>199.6037437491743</v>
+        <v>199.4734946136585</v>
       </c>
       <c r="E58" t="n">
-        <v>280.1292683268132</v>
+        <v>199.521</v>
       </c>
       <c r="F58" t="n">
-        <v>-1369120.15888098</v>
+        <v>280.929</v>
       </c>
       <c r="G58" t="n">
-        <v>320.114384845934</v>
+        <v>280.0887523572347</v>
+      </c>
+      <c r="H58" t="n">
+        <v>245.301</v>
+      </c>
+      <c r="I58" t="n">
+        <v>246.7867323565241</v>
       </c>
     </row>
     <row r="59">
@@ -1789,19 +2141,25 @@
         <v>40.172</v>
       </c>
       <c r="C59" t="n">
-        <v>39.92486323018719</v>
+        <v>40.09332329819214</v>
       </c>
       <c r="D59" t="n">
-        <v>203.5949130701789</v>
+        <v>203.4810646572607</v>
       </c>
       <c r="E59" t="n">
-        <v>280.8360627922708</v>
+        <v>203.536</v>
       </c>
       <c r="F59" t="n">
-        <v>-1397170.644845764</v>
+        <v>281.64</v>
       </c>
       <c r="G59" t="n">
-        <v>319.4187806899463</v>
+        <v>280.7980743609893</v>
+      </c>
+      <c r="H59" t="n">
+        <v>245.932</v>
+      </c>
+      <c r="I59" t="n">
+        <v>247.4868322010975</v>
       </c>
     </row>
     <row r="60">
@@ -1812,19 +2170,25 @@
         <v>40.216</v>
       </c>
       <c r="C60" t="n">
-        <v>39.94682322896122</v>
+        <v>40.1236632993751</v>
       </c>
       <c r="D60" t="n">
-        <v>207.5885504153535</v>
+        <v>207.4919629043286</v>
       </c>
       <c r="E60" t="n">
-        <v>281.5310072297238</v>
+        <v>207.555</v>
       </c>
       <c r="F60" t="n">
-        <v>-1425291.291517044</v>
+        <v>282.339</v>
       </c>
       <c r="G60" t="n">
-        <v>318.7592591321774</v>
+        <v>281.495638699738</v>
+      </c>
+      <c r="H60" t="n">
+        <v>246.554</v>
+      </c>
+      <c r="I60" t="n">
+        <v>248.1754344295075</v>
       </c>
     </row>
     <row r="61">
@@ -1835,19 +2199,25 @@
         <v>40.252</v>
       </c>
       <c r="C61" t="n">
-        <v>39.96341288806391</v>
+        <v>40.14815424890602</v>
       </c>
       <c r="D61" t="n">
-        <v>211.5841147032986</v>
+        <v>211.5056023487322</v>
       </c>
       <c r="E61" t="n">
-        <v>282.2144145276571</v>
+        <v>211.578</v>
       </c>
       <c r="F61" t="n">
-        <v>-1453480.931009879</v>
+        <v>283.027</v>
       </c>
       <c r="G61" t="n">
-        <v>318.1337876093518</v>
+        <v>282.1817470233887</v>
+      </c>
+      <c r="H61" t="n">
+        <v>247.166</v>
+      </c>
+      <c r="I61" t="n">
+        <v>248.8528375175883</v>
       </c>
     </row>
     <row r="62">
@@ -1858,19 +2228,25 @@
         <v>40.28</v>
       </c>
       <c r="C62" t="n">
-        <v>39.97471316663928</v>
+        <v>40.16683817736876</v>
       </c>
       <c r="D62" t="n">
-        <v>215.5810729478376</v>
+        <v>215.5214001867272</v>
       </c>
       <c r="E62" t="n">
-        <v>282.8865831577588</v>
+        <v>215.605</v>
       </c>
       <c r="F62" t="n">
-        <v>-1481738.425998715</v>
+        <v>283.704</v>
       </c>
       <c r="G62" t="n">
-        <v>317.5404741542945</v>
+        <v>282.8566864774908</v>
+      </c>
+      <c r="H62" t="n">
+        <v>247.769</v>
+      </c>
+      <c r="I62" t="n">
+        <v>249.5193255776809</v>
       </c>
     </row>
     <row r="63">
@@ -1881,19 +2257,25 @@
         <v>40.315</v>
       </c>
       <c r="C63" t="n">
-        <v>39.98176948173644</v>
+        <v>40.18695315401835</v>
       </c>
       <c r="D63" t="n">
-        <v>223.5770798460873</v>
+        <v>223.5571608481226</v>
       </c>
       <c r="E63" t="n">
-        <v>284.1983318607502</v>
+        <v>223.665</v>
       </c>
       <c r="F63" t="n">
-        <v>-1538452.577690564</v>
+        <v>285.025</v>
       </c>
       <c r="G63" t="n">
-        <v>316.443387195277</v>
+        <v>284.1741405152037</v>
+      </c>
+      <c r="H63" t="n">
+        <v>248.95</v>
+      </c>
+      <c r="I63" t="n">
+        <v>250.8206268552585</v>
       </c>
     </row>
     <row r="64">
@@ -1904,19 +2286,25 @@
         <v>40.319</v>
       </c>
       <c r="C64" t="n">
-        <v>39.96864008289823</v>
+        <v>40.18434470066298</v>
       </c>
       <c r="D64" t="n">
-        <v>231.5724691733641</v>
+        <v>231.5946665526746</v>
       </c>
       <c r="E64" t="n">
-        <v>285.4683871296374</v>
+        <v>231.729</v>
       </c>
       <c r="F64" t="n">
-        <v>-1595425.208456316</v>
+        <v>286.305</v>
       </c>
       <c r="G64" t="n">
-        <v>315.4552556229909</v>
+        <v>285.4500424518496</v>
+      </c>
+      <c r="H64" t="n">
+        <v>250.097</v>
+      </c>
+      <c r="I64" t="n">
+        <v>252.0813580403153</v>
       </c>
     </row>
     <row r="65">
@@ -1927,19 +2315,25 @@
         <v>40.292</v>
       </c>
       <c r="C65" t="n">
-        <v>39.9359730321044</v>
+        <v>40.1593494362298</v>
       </c>
       <c r="D65" t="n">
-        <v>239.5632685906116</v>
+        <v>239.6294062740463</v>
       </c>
       <c r="E65" t="n">
-        <v>286.6987056686106</v>
+        <v>239.791</v>
       </c>
       <c r="F65" t="n">
-        <v>-1652648.188822218</v>
+        <v>287.545</v>
       </c>
       <c r="G65" t="n">
-        <v>314.5649432657012</v>
+        <v>286.6862557636987</v>
+      </c>
+      <c r="H65" t="n">
+        <v>251.214</v>
+      </c>
+      <c r="I65" t="n">
+        <v>253.3033623679898</v>
       </c>
     </row>
     <row r="66">
@@ -1950,19 +2344,25 @@
         <v>40.234</v>
       </c>
       <c r="C66" t="n">
-        <v>39.88441651801639</v>
+        <v>40.11230410158021</v>
       </c>
       <c r="D66" t="n">
-        <v>247.5456353843584</v>
+        <v>247.6569363222613</v>
       </c>
       <c r="E66" t="n">
-        <v>287.8910882523069</v>
+        <v>247.844</v>
       </c>
       <c r="F66" t="n">
-        <v>-1710113.764731328</v>
+        <v>288.748</v>
       </c>
       <c r="G66" t="n">
-        <v>313.7626792788153</v>
+        <v>287.8844870499061</v>
+      </c>
+      <c r="H66" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="I66" t="n">
+        <v>254.4883275774725</v>
       </c>
     </row>
     <row r="67">
@@ -1973,19 +2373,25 @@
         <v>40.148</v>
       </c>
       <c r="C67" t="n">
-        <v>39.81461883457718</v>
+        <v>40.04354553891176</v>
       </c>
       <c r="D67" t="n">
-        <v>255.5158564898378</v>
+        <v>255.6728803659564</v>
       </c>
       <c r="E67" t="n">
-        <v>289.0471978146595</v>
+        <v>255.882</v>
       </c>
       <c r="F67" t="n">
-        <v>-1767814.528212779</v>
+        <v>289.912</v>
       </c>
       <c r="G67" t="n">
-        <v>313.0398589080413</v>
+        <v>289.0463042311651</v>
+      </c>
+      <c r="H67" t="n">
+        <v>253.358</v>
+      </c>
+      <c r="I67" t="n">
+        <v>255.6378039130277</v>
       </c>
     </row>
     <row r="68">
@@ -1996,19 +2402,25 @@
         <v>40.033</v>
       </c>
       <c r="C68" t="n">
-        <v>39.72722836371301</v>
+        <v>39.95341067510802</v>
       </c>
       <c r="D68" t="n">
-        <v>263.4703485102531</v>
+        <v>263.6729294509261</v>
       </c>
       <c r="E68" t="n">
-        <v>290.168574988389</v>
+        <v>263.901</v>
       </c>
       <c r="F68" t="n">
-        <v>-1825743.391406148</v>
+        <v>291.042</v>
       </c>
       <c r="G68" t="n">
-        <v>312.3888779246719</v>
+        <v>290.173152183548</v>
+      </c>
+      <c r="H68" t="n">
+        <v>254.389</v>
+      </c>
+      <c r="I68" t="n">
+        <v>256.7532195931948</v>
       </c>
     </row>
     <row r="69">
@@ -2019,19 +2431,25 @@
         <v>39.892</v>
       </c>
       <c r="C69" t="n">
-        <v>39.62289356126247</v>
+        <v>39.84223650819509</v>
       </c>
       <c r="D69" t="n">
-        <v>271.4056577329205</v>
+        <v>271.6528420156594</v>
       </c>
       <c r="E69" t="n">
-        <v>291.2566515145081</v>
+        <v>271.891</v>
       </c>
       <c r="F69" t="n">
-        <v>-1883893.56347444</v>
+        <v>292.137</v>
       </c>
       <c r="G69" t="n">
-        <v>311.8029942995549</v>
+        <v>291.2663662294484</v>
+      </c>
+      <c r="H69" t="n">
+        <v>255.395</v>
+      </c>
+      <c r="I69" t="n">
+        <v>257.8358941638293</v>
       </c>
     </row>
     <row r="70">
@@ -2042,19 +2460,25 @@
         <v>39.727</v>
       </c>
       <c r="C70" t="n">
-        <v>39.5022629454625</v>
+        <v>39.71036009625897</v>
       </c>
       <c r="D70" t="n">
-        <v>279.3184601428617</v>
+        <v>279.6084439044232</v>
       </c>
       <c r="E70" t="n">
-        <v>292.31276186287</v>
+        <v>279.856</v>
       </c>
       <c r="F70" t="n">
-        <v>-1942258.530014951</v>
+        <v>293.199</v>
       </c>
       <c r="G70" t="n">
-        <v>311.2762120466852</v>
+        <v>292.3271838287161</v>
+      </c>
+      <c r="H70" t="n">
+        <v>256.375</v>
+      </c>
+      <c r="I70" t="n">
+        <v>258.8870500731442</v>
       </c>
     </row>
     <row r="71">
@@ -2065,19 +2489,25 @@
         <v>39.538</v>
       </c>
       <c r="C71" t="n">
-        <v>39.36598508747413</v>
+        <v>39.55811854832648</v>
       </c>
       <c r="D71" t="n">
-        <v>287.2055614343059</v>
+        <v>287.5356283783337</v>
       </c>
       <c r="E71" t="n">
-        <v>293.3381533427371</v>
+        <v>287.783</v>
       </c>
       <c r="F71" t="n">
-        <v>-2000832.034639044</v>
+        <v>294.228</v>
       </c>
       <c r="G71" t="n">
-        <v>310.8031832150781</v>
+        <v>293.3567547506531</v>
+      </c>
+      <c r="H71" t="n">
+        <v>257.333</v>
+      </c>
+      <c r="I71" t="n">
+        <v>259.9078227454977</v>
       </c>
     </row>
     <row r="72">
@@ -2088,19 +2518,25 @@
         <v>39.329</v>
       </c>
       <c r="C72" t="n">
-        <v>39.21470860354478</v>
+        <v>39.38584901682116</v>
       </c>
       <c r="D72" t="n">
-        <v>295.0638970204664</v>
+        <v>295.4303561247667</v>
       </c>
       <c r="E72" t="n">
-        <v>294.3339949328737</v>
+        <v>295.67</v>
       </c>
       <c r="F72" t="n">
-        <v>-2059608.062442524</v>
+        <v>295.227</v>
       </c>
       <c r="G72" t="n">
-        <v>310.3791248181879</v>
+        <v>294.3561499577627</v>
+      </c>
+      <c r="H72" t="n">
+        <v>258.268</v>
+      </c>
+      <c r="I72" t="n">
+        <v>260.8992693816874</v>
       </c>
     </row>
     <row r="73">
@@ -2111,19 +2547,25 @@
         <v>39.101</v>
       </c>
       <c r="C73" t="n">
-        <v>39.04908214849218</v>
+        <v>39.19388869129149</v>
       </c>
       <c r="D73" t="n">
-        <v>302.8905320418866</v>
+        <v>303.28865526539</v>
       </c>
       <c r="E73" t="n">
-        <v>295.3013850209725</v>
+        <v>303.513</v>
       </c>
       <c r="F73" t="n">
-        <v>-2118580.825130087</v>
+        <v>296.195</v>
       </c>
       <c r="G73" t="n">
-        <v>309.9997481217129</v>
+        <v>295.3263693922119</v>
+      </c>
+      <c r="H73" t="n">
+        <v>259.181</v>
+      </c>
+      <c r="I73" t="n">
+        <v>261.862376674187</v>
       </c>
     </row>
     <row r="74">
@@ -2134,19 +2576,25 @@
         <v>38.857</v>
       </c>
       <c r="C74" t="n">
-        <v>38.86975441026103</v>
+        <v>38.98257479317144</v>
       </c>
       <c r="D74" t="n">
-        <v>310.682661373594</v>
+        <v>311.1066213630497</v>
       </c>
       <c r="E74" t="n">
-        <v>296.2413582101869</v>
+        <v>311.309</v>
       </c>
       <c r="F74" t="n">
-        <v>-2177744.747591977</v>
+        <v>297.154</v>
       </c>
       <c r="G74" t="n">
-        <v>309.6611982060242</v>
+        <v>296.2683488237385</v>
+      </c>
+      <c r="H74" t="n">
+        <v>260.074</v>
+      </c>
+      <c r="I74" t="n">
+        <v>262.7980675940161</v>
       </c>
     </row>
     <row r="75">
@@ -2157,19 +2605,25 @@
         <v>38.598</v>
       </c>
       <c r="C75" t="n">
-        <v>38.67737410535533</v>
+        <v>38.75224457138401</v>
       </c>
       <c r="D75" t="n">
-        <v>318.437609631255</v>
+        <v>318.8804174276947</v>
       </c>
       <c r="E75" t="n">
-        <v>297.1548913245429</v>
+        <v>319.055</v>
       </c>
       <c r="F75" t="n">
-        <v>-2237094.455759814</v>
+        <v>298.046</v>
       </c>
       <c r="G75" t="n">
-        <v>309.3600021104864</v>
+        <v>297.1829658915693</v>
+      </c>
+      <c r="H75" t="n">
+        <v>260.946</v>
+      </c>
+      <c r="I75" t="n">
+        <v>263.7072073801511</v>
       </c>
     </row>
     <row r="76">
@@ -2180,19 +2634,25 @@
         <v>38.326</v>
       </c>
       <c r="C76" t="n">
-        <v>38.47258997498879</v>
+        <v>38.50323529863596</v>
       </c>
       <c r="D76" t="n">
-        <v>326.1528311764914</v>
+        <v>326.6062739214934</v>
       </c>
       <c r="E76" t="n">
-        <v>298.0429087237817</v>
+        <v>326.748</v>
       </c>
       <c r="F76" t="n">
-        <v>-2296624.765592787</v>
+        <v>298.93</v>
       </c>
       <c r="G76" t="n">
-        <v>309.0930241774558</v>
+        <v>298.0710454515794</v>
+      </c>
+      <c r="H76" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="I76" t="n">
+        <v>264.5906088413441</v>
       </c>
     </row>
     <row r="77">
@@ -2203,19 +2663,25 @@
         <v>38.044</v>
       </c>
       <c r="C77" t="n">
-        <v>38.2560507818275</v>
+        <v>38.23588426828243</v>
       </c>
       <c r="D77" t="n">
-        <v>333.8259101214876</v>
+        <v>334.2804887632689</v>
       </c>
       <c r="E77" t="n">
-        <v>298.9062870207909</v>
+        <v>334.385</v>
       </c>
       <c r="F77" t="n">
-        <v>-2356330.673065631</v>
+        <v>299.788</v>
       </c>
       <c r="G77" t="n">
-        <v>308.8574274617232</v>
+        <v>298.9333643224072</v>
+      </c>
+      <c r="H77" t="n">
+        <v>262.634</v>
+      </c>
+      <c r="I77" t="n">
+        <v>265.4490370629527</v>
       </c>
     </row>
     <row r="78">
@@ -2223,22 +2689,28 @@
         <v>9200</v>
       </c>
       <c r="B78" t="n">
-        <v>37.752</v>
+        <v>37.749</v>
       </c>
       <c r="C78" t="n">
-        <v>38.02840530722264</v>
+        <v>37.95052879166349</v>
       </c>
       <c r="D78" t="n">
-        <v>341.4545603329969</v>
+        <v>341.8994273323538</v>
       </c>
       <c r="E78" t="n">
-        <v>299.7458592804373</v>
+        <v>341.964</v>
       </c>
       <c r="F78" t="n">
-        <v>-2416207.345047026</v>
+        <v>300.621</v>
       </c>
       <c r="G78" t="n">
-        <v>308.6506402702928</v>
+        <v>299.7706555098232</v>
+      </c>
+      <c r="H78" t="n">
+        <v>263.451</v>
+      </c>
+      <c r="I78" t="n">
+        <v>266.2832135971528</v>
       </c>
     </row>
     <row r="79">
@@ -2246,22 +2718,28 @@
         <v>9400</v>
       </c>
       <c r="B79" t="n">
-        <v>37.454</v>
+        <v>37.973</v>
       </c>
       <c r="C79" t="n">
-        <v>37.79030234885089</v>
+        <v>37.64750619583288</v>
       </c>
       <c r="D79" t="n">
-        <v>349.0366254358365</v>
+        <v>349.4595224719562</v>
       </c>
       <c r="E79" t="n">
-        <v>300.5624187667468</v>
+        <v>349.485</v>
       </c>
       <c r="F79" t="n">
-        <v>-2476250.110971583</v>
+        <v>301.43</v>
       </c>
       <c r="G79" t="n">
-        <v>308.4703270581008</v>
+        <v>300.5836119766996</v>
+      </c>
+      <c r="H79" t="n">
+        <v>264.25</v>
+      </c>
+      <c r="I79" t="n">
+        <v>267.093820203118</v>
       </c>
     </row>
     <row r="80">
@@ -2272,19 +2750,25 @@
         <v>37.15</v>
       </c>
       <c r="C80" t="n">
-        <v>37.54239071869533</v>
+        <v>37.32715382161462</v>
       </c>
       <c r="D80" t="n">
-        <v>356.5700788159455</v>
+        <v>356.957274492101</v>
       </c>
       <c r="E80" t="n">
-        <v>301.3567222955061</v>
+        <v>356.946</v>
       </c>
       <c r="F80" t="n">
-        <v>-2536454.455220913</v>
+        <v>302.215</v>
       </c>
       <c r="G80" t="n">
-        <v>308.3143630356352</v>
+        <v>301.372890016005</v>
+      </c>
+      <c r="H80" t="n">
+        <v>265.033</v>
+      </c>
+      <c r="I80" t="n">
+        <v>267.8815021939528</v>
       </c>
     </row>
     <row r="81">
@@ -2295,19 +2779,25 @@
         <v>36.842</v>
       </c>
       <c r="C81" t="n">
-        <v>37.28531924131183</v>
+        <v>36.98980902193429</v>
       </c>
       <c r="D81" t="n">
-        <v>364.053023623068</v>
+        <v>364.3892511722144</v>
       </c>
       <c r="E81" t="n">
-        <v>302.1294932411197</v>
+        <v>364.345</v>
       </c>
       <c r="F81" t="n">
-        <v>-2596816.010139906</v>
+        <v>302.978</v>
       </c>
       <c r="G81" t="n">
-        <v>308.1808119506411</v>
+        <v>302.1391122759522</v>
+      </c>
+      <c r="H81" t="n">
+        <v>265.8</v>
+      </c>
+      <c r="I81" t="n">
+        <v>268.6468714389733</v>
       </c>
     </row>
     <row r="82">
@@ -2318,19 +2808,25 @@
         <v>36.531</v>
       </c>
       <c r="C82" t="n">
-        <v>37.01973675233548</v>
+        <v>36.6358091603816</v>
       </c>
       <c r="D82" t="n">
-        <v>371.4836927731156</v>
+        <v>371.7520877633959</v>
       </c>
       <c r="E82" t="n">
-        <v>302.8814242396454</v>
+        <v>371.682</v>
       </c>
       <c r="F82" t="n">
-        <v>-2657330.549623339</v>
+        <v>303.719</v>
       </c>
       <c r="G82" t="n">
-        <v>308.0679065930565</v>
+        <v>302.8828704794778</v>
+      </c>
+      <c r="H82" t="n">
+        <v>266.551</v>
+      </c>
+      <c r="I82" t="n">
+        <v>269.3905090630675</v>
       </c>
     </row>
     <row r="83">
@@ -2341,19 +2837,25 @@
         <v>35.749</v>
       </c>
       <c r="C83" t="n">
-        <v>36.32280292336588</v>
+        <v>35.68015764150219</v>
       </c>
       <c r="D83" t="n">
-        <v>389.8212341198423</v>
+        <v>389.8352190369003</v>
       </c>
       <c r="E83" t="n">
-        <v>304.6743729056652</v>
+        <v>389.752</v>
       </c>
       <c r="F83" t="n">
-        <v>-2809259.681389642</v>
+        <v>305.483</v>
       </c>
       <c r="G83" t="n">
-        <v>307.8657009671927</v>
+        <v>304.6476179201842</v>
+      </c>
+      <c r="H83" t="n">
+        <v>268.363</v>
+      </c>
+      <c r="I83" t="n">
+        <v>271.1580913404007</v>
       </c>
     </row>
     <row r="84">
@@ -2364,433 +2866,25 @@
         <v>34.973</v>
       </c>
       <c r="C84" t="n">
-        <v>35.58686900730179</v>
+        <v>34.62779225320459</v>
       </c>
       <c r="D84" t="n">
-        <v>407.8001395992717</v>
+        <v>407.4161264253077</v>
       </c>
       <c r="E84" t="n">
-        <v>306.3508585300507</v>
+        <v>407.432</v>
       </c>
       <c r="F84" t="n">
-        <v>-2962059.304231286</v>
+        <v>307.128</v>
       </c>
       <c r="G84" t="n">
-        <v>307.761045826517</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>11500</v>
-      </c>
-      <c r="B85" t="n">
-        <v>34.215</v>
-      </c>
-      <c r="C85" t="n">
-        <v>34.82207368794126</v>
-      </c>
-      <c r="D85" t="n">
-        <v>425.4034438705709</v>
-      </c>
-      <c r="E85" t="n">
-        <v>307.9197429258685</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-3115673.599776917</v>
-      </c>
-      <c r="G85" t="n">
-        <v>307.7363648985257</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>12000</v>
-      </c>
-      <c r="B86" t="n">
-        <v>33.483</v>
-      </c>
-      <c r="C86" t="n">
-        <v>34.03855584251475</v>
-      </c>
-      <c r="D86" t="n">
-        <v>442.6192509902492</v>
-      </c>
-      <c r="E86" t="n">
-        <v>309.3891875646822</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-3270050.999785937</v>
-      </c>
-      <c r="G86" t="n">
-        <v>307.7773650445789</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>12500</v>
-      </c>
-      <c r="B87" t="n">
-        <v>32.782</v>
-      </c>
-      <c r="C87" t="n">
-        <v>33.24645449621809</v>
-      </c>
-      <c r="D87" t="n">
-        <v>459.4407344969175</v>
-      </c>
-      <c r="E87" t="n">
-        <v>310.7667680105714</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-3425143.865635224</v>
-      </c>
-      <c r="G87" t="n">
-        <v>307.8723539920582</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>13000</v>
-      </c>
-      <c r="B88" t="n">
-        <v>32.116</v>
-      </c>
-      <c r="C88" t="n">
-        <v>32.45590878874231</v>
-      </c>
-      <c r="D88" t="n">
-        <v>475.8661374764902</v>
-      </c>
-      <c r="E88" t="n">
-        <v>312.0595658953531</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-3580908.2191631</v>
-      </c>
-      <c r="G88" t="n">
-        <v>308.0117194635095</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>13500</v>
-      </c>
-      <c r="B89" t="n">
-        <v>31.487</v>
-      </c>
-      <c r="C89" t="n">
-        <v>31.67705794931452</v>
-      </c>
-      <c r="D89" t="n">
-        <v>491.8987726128954</v>
-      </c>
-      <c r="E89" t="n">
-        <v>313.2742435252012</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-3737303.514977321</v>
-      </c>
-      <c r="G89" t="n">
-        <v>308.1875271262746</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>14000</v>
-      </c>
-      <c r="B90" t="n">
-        <v>30.894</v>
-      </c>
-      <c r="C90" t="n">
-        <v>30.9200412778635</v>
-      </c>
-      <c r="D90" t="n">
-        <v>507.5470222279229</v>
-      </c>
-      <c r="E90" t="n">
-        <v>314.4171049117421</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-3894292.446536466</v>
-      </c>
-      <c r="G90" t="n">
-        <v>308.3932071081599</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>14500</v>
-      </c>
-      <c r="B91" t="n">
-        <v>30.338</v>
-      </c>
-      <c r="C91" t="n">
-        <v>30.19499813065031</v>
-      </c>
-      <c r="D91" t="n">
-        <v>522.8243383128245</v>
-      </c>
-      <c r="E91" t="n">
-        <v>315.4941460881259</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-4051840.779965001</v>
-      </c>
-      <c r="G91" t="n">
-        <v>308.6233072845992</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>15000</v>
-      </c>
-      <c r="B92" t="n">
-        <v>29.817</v>
-      </c>
-      <c r="C92" t="n">
-        <v>29.51206790919436</v>
-      </c>
-      <c r="D92" t="n">
-        <v>537.7492425535978</v>
-      </c>
-      <c r="E92" t="n">
-        <v>316.5110968911664</v>
-      </c>
-      <c r="F92" t="n">
-        <v>-4209917.210813899</v>
-      </c>
-      <c r="G92" t="n">
-        <v>308.8732974380897</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>15500</v>
-      </c>
-      <c r="B93" t="n">
-        <v>29.33</v>
-      </c>
-      <c r="C93" t="n">
-        <v>28.88139005165838</v>
-      </c>
-      <c r="D93" t="n">
-        <v>552.3453263513755</v>
-      </c>
-      <c r="E93" t="n">
-        <v>317.4734558896229</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-4368493.239937779</v>
-      </c>
-      <c r="G93" t="n">
-        <v>309.139412555576</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>16000</v>
-      </c>
-      <c r="B94" t="n">
-        <v>28.874</v>
-      </c>
-      <c r="C94" t="n">
-        <v>28.31310402608749</v>
-      </c>
-      <c r="D94" t="n">
-        <v>566.641250838993</v>
-      </c>
-      <c r="E94" t="n">
-        <v>318.386519765043</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-4527543.065401696</v>
-      </c>
-      <c r="G94" t="n">
-        <v>309.4185265094285</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>16500</v>
-      </c>
-      <c r="B95" t="n">
-        <v>28.449</v>
-      </c>
-      <c r="C95" t="n">
-        <v>27.81734932506038</v>
-      </c>
-      <c r="D95" t="n">
-        <v>580.6707468945431</v>
-      </c>
-      <c r="E95" t="n">
-        <v>319.2554081699838</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-4687043.487910189</v>
-      </c>
-      <c r="G95" t="n">
-        <v>309.7080495250481</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>17000</v>
-      </c>
-      <c r="B96" t="n">
-        <v>28.053</v>
-      </c>
-      <c r="C96" t="n">
-        <v>27.40426546142477</v>
-      </c>
-      <c r="D96" t="n">
-        <v>594.4726151525406</v>
-      </c>
-      <c r="E96" t="n">
-        <v>320.0850848741345</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-4846973.827707746</v>
-      </c>
-      <c r="G96" t="n">
-        <v>310.0058444172114</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>17500</v>
-      </c>
-      <c r="B97" t="n">
-        <v>27.683</v>
-      </c>
-      <c r="C97" t="n">
-        <v>27.08399196487343</v>
-      </c>
-      <c r="D97" t="n">
-        <v>608.0907260131726</v>
-      </c>
-      <c r="E97" t="n">
-        <v>320.8803758443017</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-5007315.851262108</v>
-      </c>
-      <c r="G97" t="n">
-        <v>310.3101577449197</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>18000</v>
-      </c>
-      <c r="B98" t="n">
-        <v>27.337</v>
-      </c>
-      <c r="C98" t="n">
-        <v>26.86666837917649</v>
-      </c>
-      <c r="D98" t="n">
-        <v>621.5740196500075</v>
-      </c>
-      <c r="E98" t="n">
-        <v>321.6459847767571</v>
-      </c>
-      <c r="F98" t="n">
-        <v>-5168053.70633162</v>
-      </c>
-      <c r="G98" t="n">
-        <v>310.6195629062206</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>18500</v>
-      </c>
-      <c r="B99" t="n">
-        <v>27.014</v>
-      </c>
-      <c r="C99" t="n">
-        <v>26.76243425992995</v>
-      </c>
-      <c r="D99" t="n">
-        <v>634.9765060164559</v>
-      </c>
-      <c r="E99" t="n">
-        <v>322.3865065009574</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-5329173.864251255</v>
-      </c>
-      <c r="G99" t="n">
-        <v>310.932912851094</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>19000</v>
-      </c>
-      <c r="B100" t="n">
-        <v>26.713</v>
-      </c>
-      <c r="C100" t="n">
-        <v>26.78142917271366</v>
-      </c>
-      <c r="D100" t="n">
-        <v>648.3572648512093</v>
-      </c>
-      <c r="E100" t="n">
-        <v>323.1064385953827</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-5490665.068461061</v>
-      </c>
-      <c r="G100" t="n">
-        <v>311.2493005892742</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>19500</v>
-      </c>
-      <c r="B101" t="n">
-        <v>26.431</v>
-      </c>
-      <c r="C101" t="n">
-        <v>26.93379269157531</v>
-      </c>
-      <c r="D101" t="n">
-        <v>661.7804456828449</v>
-      </c>
-      <c r="E101" t="n">
-        <v>323.8101914942517</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-5652518.288455063</v>
-      </c>
-      <c r="G101" t="n">
-        <v>311.5680260517631</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>20000</v>
-      </c>
-      <c r="B102" t="n">
-        <v>26.167</v>
-      </c>
-      <c r="C102" t="n">
-        <v>27.22966439777635</v>
-      </c>
-      <c r="D102" t="n">
-        <v>675.3152678337386</v>
-      </c>
-      <c r="E102" t="n">
-        <v>324.5020973144498</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-5814726.678455257</v>
-      </c>
-      <c r="G102" t="n">
-        <v>311.8885681593712</v>
+        <v>306.2835358624124</v>
+      </c>
+      <c r="H84" t="n">
+        <v>270.088</v>
+      </c>
+      <c r="I84" t="n">
+        <v>272.8011977352345</v>
       </c>
     </row>
   </sheetData>
